--- a/samples/testDB_test.xlsx
+++ b/samples/testDB_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\var\projects\VFGR_MS-cms\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\var\projects\k8scms\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA494A0C-A900-4403-810A-1D4BFF2E935A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FEA44E-AFDB-46A9-9726-F8B0E0FF6896}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -63,15 +63,9 @@
     <t>email</t>
   </si>
   <si>
-    <t>alexandros@gelbessis.gr</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
-    <t>+30 6973530380</t>
-  </si>
-  <si>
     <t>secret</t>
   </si>
   <si>
@@ -490,6 +484,12 @@
   </si>
   <si>
     <t>a1.3</t>
+  </si>
+  <si>
+    <t>user@test.com</t>
+  </si>
+  <si>
+    <t>+30 6977777777</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
   <dimension ref="A1:O281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -900,27 +900,27 @@
         <v>11</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="N1" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>-5</v>
@@ -941,16 +941,16 @@
         <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -961,10 +961,10 @@
     </row>
     <row r="3" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1">
         <v>44196</v>
@@ -976,33 +976,33 @@
         <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" t="s">
         <v>149</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>-3</v>
@@ -1017,18 +1017,18 @@
         <v>7</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N4">
         <v>123.99</v>
       </c>
       <c r="O4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>-2</v>
@@ -1043,19 +1043,19 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N5">
         <v>12.321099999999999</v>
@@ -1070,7 +1070,7 @@
         <v>-1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O6">
         <v>1.2</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>432</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K7" t="s">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>0.1</v>
@@ -1140,19 +1140,19 @@
         <v>10</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O8">
         <v>1.9990000000000001</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1175,10 +1175,10 @@
         <v>10</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N9">
         <v>124</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -1204,13 +1204,13 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -1231,7 +1231,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="O11">
         <v>60000000.219999999</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
@@ -1260,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
         <v>5</v>
@@ -1286,19 +1286,19 @@
         <v>7</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s">
         <v>7</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>6</v>
@@ -1327,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N14">
         <v>125</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>7</v>
@@ -1353,16 +1353,16 @@
         <v>10</v>
       </c>
       <c r="J15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
         <v>14</v>
       </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
       <c r="L15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -1379,7 +1379,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>9</v>
@@ -1394,16 +1394,16 @@
         <v>1</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
         <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>10</v>
@@ -1429,16 +1429,16 @@
         <v>7</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N18" t="s">
         <v>7</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>0.69</v>
@@ -1458,10 +1458,10 @@
         <v>7</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N19">
         <v>126</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>12</v>
@@ -1490,13 +1490,13 @@
         <v>10</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -1520,12 +1520,12 @@
         <v>10</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2">
         <v>14</v>
@@ -1540,10 +1540,10 @@
         <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>4</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2">
         <v>15</v>
@@ -1569,19 +1569,19 @@
         <v>7</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N23" t="s">
         <v>7</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2">
         <v>16</v>
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N24">
         <v>127</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2">
         <v>17</v>
@@ -1630,16 +1630,16 @@
         <v>8</v>
       </c>
       <c r="J25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" t="s">
         <v>14</v>
       </c>
-      <c r="K25" t="s">
-        <v>16</v>
-      </c>
       <c r="L25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -1662,7 +1662,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2">
         <v>19</v>
@@ -1680,16 +1680,16 @@
         <v>10</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s">
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>5</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="2">
         <v>20</v>
@@ -1712,16 +1712,16 @@
         <v>7</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N28" t="s">
         <v>7</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2">
         <v>21</v>
@@ -1744,10 +1744,10 @@
         <v>7</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N29">
         <v>128</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2">
         <v>22</v>
@@ -1773,13 +1773,13 @@
         <v>7</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -1797,12 +1797,12 @@
         <v>8</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2">
         <v>24</v>
@@ -1826,10 +1826,10 @@
         <v>2</v>
       </c>
       <c r="L32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>6</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2">
         <v>25</v>
@@ -1858,19 +1858,19 @@
         <v>10</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N33" t="s">
         <v>7</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="2">
         <v>26</v>
@@ -1893,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N34">
         <v>129</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="2">
         <v>27</v>
@@ -1919,16 +1919,16 @@
         <v>8</v>
       </c>
       <c r="J35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" t="s">
         <v>14</v>
       </c>
-      <c r="K35" t="s">
-        <v>16</v>
-      </c>
       <c r="L35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -1945,7 +1945,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2">
         <v>29</v>
@@ -1957,16 +1957,16 @@
         <v>6</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K37" t="s">
         <v>2</v>
       </c>
       <c r="L37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>7</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B38" s="2">
         <v>30</v>
@@ -1995,16 +1995,16 @@
         <v>10</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N38" t="s">
         <v>7</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" s="2">
         <v>31</v>
@@ -2033,10 +2033,10 @@
         <v>10</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N39">
         <v>130</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" s="2">
         <v>32</v>
@@ -2059,13 +2059,13 @@
         <v>7</v>
       </c>
       <c r="K40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -2086,12 +2086,12 @@
         <v>8</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B42" s="2">
         <v>34</v>
@@ -2112,10 +2112,10 @@
         <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>8</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B43" s="2">
         <v>35</v>
@@ -2135,19 +2135,19 @@
         <v>7</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N43" t="s">
         <v>7</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44" s="2">
         <v>36</v>
@@ -2176,7 +2176,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N44">
         <v>131</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B45" s="2">
         <v>37</v>
@@ -2205,16 +2205,16 @@
         <v>10</v>
       </c>
       <c r="J45" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K45" t="s">
         <v>14</v>
       </c>
-      <c r="K45" t="s">
-        <v>16</v>
-      </c>
       <c r="L45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -2231,7 +2231,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47" s="2">
         <v>39</v>
@@ -2246,16 +2246,16 @@
         <v>1</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K47" t="s">
         <v>2</v>
       </c>
       <c r="L47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>9</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B48" s="2">
         <v>40</v>
@@ -2281,16 +2281,16 @@
         <v>7</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N48" t="s">
         <v>7</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B49" s="2">
         <v>41</v>
@@ -2313,10 +2313,10 @@
         <v>7</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N49">
         <v>132</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B50" s="2">
         <v>42</v>
@@ -2342,13 +2342,13 @@
         <v>10</v>
       </c>
       <c r="K50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -2372,12 +2372,12 @@
         <v>10</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B52" s="2">
         <v>44</v>
@@ -2395,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="L52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N52">
         <v>10</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B53" s="2">
         <v>45</v>
@@ -2424,19 +2424,19 @@
         <v>7</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N53" t="s">
         <v>7</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B54" s="2">
         <v>46</v>
@@ -2462,7 +2462,7 @@
         <v>7</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N54">
         <v>133</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B55" s="2">
         <v>47</v>
@@ -2485,16 +2485,16 @@
         <v>8</v>
       </c>
       <c r="J55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K55" t="s">
         <v>14</v>
       </c>
-      <c r="K55" t="s">
-        <v>16</v>
-      </c>
       <c r="L55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -2517,7 +2517,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B57" s="2">
         <v>49</v>
@@ -2532,16 +2532,16 @@
         <v>10</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K57" t="s">
         <v>2</v>
       </c>
       <c r="L57" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N57">
         <v>11</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B58" s="2">
         <v>50</v>
@@ -2564,16 +2564,16 @@
         <v>7</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N58" t="s">
         <v>7</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B59" s="2">
         <v>51</v>
@@ -2599,10 +2599,10 @@
         <v>7</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N59">
         <v>134</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B60" s="2">
         <v>52</v>
@@ -2628,13 +2628,13 @@
         <v>7</v>
       </c>
       <c r="K60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
@@ -2652,12 +2652,12 @@
         <v>8</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B62" s="2">
         <v>54</v>
@@ -2681,10 +2681,10 @@
         <v>2</v>
       </c>
       <c r="L62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N62">
         <v>12</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B63" s="2">
         <v>55</v>
@@ -2713,19 +2713,19 @@
         <v>10</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N63" t="s">
         <v>7</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B64" s="2">
         <v>56</v>
@@ -2745,7 +2745,7 @@
         <v>7</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N64">
         <v>135</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B65" s="2">
         <v>57</v>
@@ -2771,16 +2771,16 @@
         <v>8</v>
       </c>
       <c r="J65" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K65" t="s">
         <v>14</v>
       </c>
-      <c r="K65" t="s">
-        <v>16</v>
-      </c>
       <c r="L65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
@@ -2800,7 +2800,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B67" s="2">
         <v>59</v>
@@ -2812,16 +2812,16 @@
         <v>44196.999988368058</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K67" t="s">
         <v>2</v>
       </c>
       <c r="L67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N67">
         <v>13</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B68" s="2">
         <v>60</v>
@@ -2850,16 +2850,16 @@
         <v>10</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N68" t="s">
         <v>7</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B69" s="2">
         <v>61</v>
@@ -2888,10 +2888,10 @@
         <v>10</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N69">
         <v>136</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B70" s="2">
         <v>62</v>
@@ -2914,13 +2914,13 @@
         <v>7</v>
       </c>
       <c r="K70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
@@ -2938,12 +2938,12 @@
         <v>8</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B72" s="2">
         <v>64</v>
@@ -2964,10 +2964,10 @@
         <v>2</v>
       </c>
       <c r="L72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N72">
         <v>14</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B73" s="2">
         <v>65</v>
@@ -2990,19 +2990,19 @@
         <v>7</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N73" t="s">
         <v>7</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B74" s="2">
         <v>66</v>
@@ -3031,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N74">
         <v>137</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B75" s="2">
         <v>67</v>
@@ -3060,16 +3060,16 @@
         <v>10</v>
       </c>
       <c r="J75" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K75" t="s">
         <v>14</v>
       </c>
-      <c r="K75" t="s">
-        <v>16</v>
-      </c>
       <c r="L75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
@@ -3086,7 +3086,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B77" s="2">
         <v>69</v>
@@ -3101,16 +3101,16 @@
         <v>1</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K77" t="s">
         <v>2</v>
       </c>
       <c r="L77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N77">
         <v>15</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B78" s="2">
         <v>70</v>
@@ -3133,16 +3133,16 @@
         <v>7</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N78" t="s">
         <v>7</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B79" s="2">
         <v>71</v>
@@ -3165,10 +3165,10 @@
         <v>7</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N79">
         <v>138</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B80" s="2">
         <v>72</v>
@@ -3197,13 +3197,13 @@
         <v>10</v>
       </c>
       <c r="K80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L80" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
@@ -3227,12 +3227,12 @@
         <v>10</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B82" s="2">
         <v>74</v>
@@ -3250,10 +3250,10 @@
         <v>2</v>
       </c>
       <c r="L82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M82" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N82">
         <v>16</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B83" s="2">
         <v>75</v>
@@ -3279,19 +3279,19 @@
         <v>7</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L83" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N83" t="s">
         <v>7</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B84" s="2">
         <v>76</v>
@@ -3317,7 +3317,7 @@
         <v>7</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N84">
         <v>139</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B85" s="2">
         <v>77</v>
@@ -3337,16 +3337,16 @@
         <v>8</v>
       </c>
       <c r="J85" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K85" t="s">
         <v>14</v>
       </c>
-      <c r="K85" t="s">
-        <v>16</v>
-      </c>
       <c r="L85" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -3369,7 +3369,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B87" s="2">
         <v>79</v>
@@ -3387,16 +3387,16 @@
         <v>10</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K87" t="s">
         <v>2</v>
       </c>
       <c r="L87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N87">
         <v>17</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B88" s="2">
         <v>80</v>
@@ -3419,16 +3419,16 @@
         <v>7</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L88" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N88" t="s">
         <v>7</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B89" s="2">
         <v>81</v>
@@ -3454,10 +3454,10 @@
         <v>7</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N89">
         <v>140</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B90" s="2">
         <v>82</v>
@@ -3483,13 +3483,13 @@
         <v>7</v>
       </c>
       <c r="K90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L90" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -3507,12 +3507,12 @@
         <v>8</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B92" s="2">
         <v>84</v>
@@ -3533,10 +3533,10 @@
         <v>2</v>
       </c>
       <c r="L92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M92" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N92">
         <v>18</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B93" s="2">
         <v>85</v>
@@ -3565,19 +3565,19 @@
         <v>10</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L93" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N93" t="s">
         <v>7</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B94" s="2">
         <v>86</v>
@@ -3600,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N94">
         <v>141</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B95" s="2">
         <v>87</v>
@@ -3626,16 +3626,16 @@
         <v>8</v>
       </c>
       <c r="J95" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K95" t="s">
         <v>14</v>
       </c>
-      <c r="K95" t="s">
-        <v>16</v>
-      </c>
       <c r="L95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
@@ -3655,7 +3655,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B97" s="2">
         <v>89</v>
@@ -3667,16 +3667,16 @@
         <v>3</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K97" t="s">
         <v>2</v>
       </c>
       <c r="L97" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M97" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N97">
         <v>19</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B98" s="2">
         <v>90</v>
@@ -3705,16 +3705,16 @@
         <v>10</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L98" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N98" t="s">
         <v>7</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B99" s="2">
         <v>91</v>
@@ -3740,10 +3740,10 @@
         <v>10</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N99">
         <v>142</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B100" s="2">
         <v>92</v>
@@ -3766,13 +3766,13 @@
         <v>7</v>
       </c>
       <c r="K100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L100" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M100" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
@@ -3793,12 +3793,12 @@
         <v>8</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B102" s="2">
         <v>94</v>
@@ -3819,10 +3819,10 @@
         <v>2</v>
       </c>
       <c r="L102" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M102" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N102">
         <v>20</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B103" s="2">
         <v>95</v>
@@ -3845,19 +3845,19 @@
         <v>7</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N103" t="s">
         <v>7</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B104" s="2">
         <v>96</v>
@@ -3886,7 +3886,7 @@
         <v>10</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N104">
         <v>143</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B105" s="2">
         <v>97</v>
@@ -3915,16 +3915,16 @@
         <v>10</v>
       </c>
       <c r="J105" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K105" t="s">
         <v>14</v>
       </c>
-      <c r="K105" t="s">
-        <v>16</v>
-      </c>
       <c r="L105" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
@@ -3938,7 +3938,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B107" s="2">
         <v>99</v>
@@ -3953,16 +3953,16 @@
         <v>1</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K107" t="s">
         <v>2</v>
       </c>
       <c r="L107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M107" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N107">
         <v>21</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B108" s="2">
         <v>100</v>
@@ -3988,16 +3988,16 @@
         <v>7</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L108" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N108" t="s">
         <v>7</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B109" s="2">
         <v>101</v>
@@ -4020,10 +4020,10 @@
         <v>7</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N109">
         <v>144</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B110" s="2">
         <v>102</v>
@@ -4052,13 +4052,13 @@
         <v>10</v>
       </c>
       <c r="K110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L110" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M110" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
@@ -4082,12 +4082,12 @@
         <v>10</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B112" s="2">
         <v>104</v>
@@ -4105,10 +4105,10 @@
         <v>2</v>
       </c>
       <c r="L112" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M112" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N112">
         <v>22</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B113" s="2">
         <v>105</v>
@@ -4131,19 +4131,19 @@
         <v>7</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L113" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N113" t="s">
         <v>7</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B114" s="2">
         <v>106</v>
@@ -4169,7 +4169,7 @@
         <v>7</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N114">
         <v>145</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B115" s="2">
         <v>107</v>
@@ -4192,16 +4192,16 @@
         <v>8</v>
       </c>
       <c r="J115" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K115" t="s">
         <v>14</v>
       </c>
-      <c r="K115" t="s">
-        <v>16</v>
-      </c>
       <c r="L115" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M115" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
@@ -4224,7 +4224,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B117" s="2">
         <v>109</v>
@@ -4242,16 +4242,16 @@
         <v>10</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K117" t="s">
         <v>2</v>
       </c>
       <c r="L117" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M117" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N117">
         <v>23</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B118" s="2">
         <v>110</v>
@@ -4274,16 +4274,16 @@
         <v>7</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L118" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N118" t="s">
         <v>7</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B119" s="2">
         <v>111</v>
@@ -4309,10 +4309,10 @@
         <v>7</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N119">
         <v>146</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B120" s="2">
         <v>112</v>
@@ -4335,13 +4335,13 @@
         <v>7</v>
       </c>
       <c r="K120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L120" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M120" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
@@ -4359,12 +4359,12 @@
         <v>8</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B122" s="2">
         <v>114</v>
@@ -4388,10 +4388,10 @@
         <v>2</v>
       </c>
       <c r="L122" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M122" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N122">
         <v>24</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B123" s="2">
         <v>115</v>
@@ -4420,19 +4420,19 @@
         <v>10</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L123" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N123" t="s">
         <v>7</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B124" s="2">
         <v>116</v>
@@ -4455,7 +4455,7 @@
         <v>7</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N124">
         <v>147</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B125" s="2">
         <v>117</v>
@@ -4481,16 +4481,16 @@
         <v>8</v>
       </c>
       <c r="J125" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K125" t="s">
         <v>14</v>
       </c>
-      <c r="K125" t="s">
-        <v>16</v>
-      </c>
       <c r="L125" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M125" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
@@ -4510,7 +4510,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B127" s="2">
         <v>119</v>
@@ -4519,16 +4519,16 @@
         <v>5.01</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K127" t="s">
         <v>2</v>
       </c>
       <c r="L127" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M127" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N127">
         <v>25</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B128" s="2">
         <v>120</v>
@@ -4557,16 +4557,16 @@
         <v>10</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L128" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N128" t="s">
         <v>7</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B129" s="2">
         <v>121</v>
@@ -4595,10 +4595,10 @@
         <v>10</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N129">
         <v>148</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B130" s="2">
         <v>122</v>
@@ -4621,13 +4621,13 @@
         <v>7</v>
       </c>
       <c r="K130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L130" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M130" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
@@ -4648,12 +4648,12 @@
         <v>8</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B132" s="2">
         <v>124</v>
@@ -4674,10 +4674,10 @@
         <v>2</v>
       </c>
       <c r="L132" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M132" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N132">
         <v>26</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B133" s="2">
         <v>125</v>
@@ -4700,19 +4700,19 @@
         <v>7</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L133" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N133" t="s">
         <v>7</v>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B134" s="2">
         <v>126</v>
@@ -4738,7 +4738,7 @@
         <v>10</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N134">
         <v>149</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B135" s="2">
         <v>127</v>
@@ -4767,16 +4767,16 @@
         <v>10</v>
       </c>
       <c r="J135" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K135" t="s">
         <v>14</v>
       </c>
-      <c r="K135" t="s">
-        <v>16</v>
-      </c>
       <c r="L135" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M135" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
@@ -4793,7 +4793,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B137" s="2">
         <v>129</v>
@@ -4808,16 +4808,16 @@
         <v>1</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K137" t="s">
         <v>2</v>
       </c>
       <c r="L137" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M137" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N137">
         <v>27</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B138" s="2">
         <v>130</v>
@@ -4843,16 +4843,16 @@
         <v>7</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L138" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N138" t="s">
         <v>7</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B139" s="2">
         <v>131</v>
@@ -4875,10 +4875,10 @@
         <v>7</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N139">
         <v>150</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B140" s="2">
         <v>132</v>
@@ -4907,13 +4907,13 @@
         <v>10</v>
       </c>
       <c r="K140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L140" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
@@ -4934,12 +4934,12 @@
         <v>10</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B142" s="2">
         <v>134</v>
@@ -4957,10 +4957,10 @@
         <v>2</v>
       </c>
       <c r="L142" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M142" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N142">
         <v>28</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B143" s="2">
         <v>135</v>
@@ -4986,19 +4986,19 @@
         <v>7</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L143" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N143" t="s">
         <v>7</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B144" s="2">
         <v>136</v>
@@ -5024,7 +5024,7 @@
         <v>7</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N144">
         <v>151</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B145" s="2">
         <v>137</v>
@@ -5047,16 +5047,16 @@
         <v>8</v>
       </c>
       <c r="J145" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K145" t="s">
         <v>14</v>
       </c>
-      <c r="K145" t="s">
-        <v>16</v>
-      </c>
       <c r="L145" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M145" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.35">
@@ -5079,7 +5079,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B147" s="2">
         <v>139</v>
@@ -5097,16 +5097,16 @@
         <v>10</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K147" t="s">
         <v>2</v>
       </c>
       <c r="L147" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M147" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N147">
         <v>29</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B148" s="2">
         <v>140</v>
@@ -5126,16 +5126,16 @@
         <v>7</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L148" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N148" t="s">
         <v>7</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B149" s="2">
         <v>141</v>
@@ -5161,10 +5161,10 @@
         <v>7</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N149">
         <v>152</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B150" s="2">
         <v>142</v>
@@ -5190,13 +5190,13 @@
         <v>7</v>
       </c>
       <c r="K150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L150" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M150" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.35">
@@ -5214,12 +5214,12 @@
         <v>8</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B152" s="2">
         <v>144</v>
@@ -5243,10 +5243,10 @@
         <v>2</v>
       </c>
       <c r="L152" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M152" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N152">
         <v>30</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B153" s="2">
         <v>145</v>
@@ -5275,19 +5275,19 @@
         <v>10</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L153" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N153" t="s">
         <v>7</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B154" s="2">
         <v>146</v>
@@ -5310,7 +5310,7 @@
         <v>7</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N154">
         <v>153</v>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B155" s="2">
         <v>147</v>
@@ -5333,16 +5333,16 @@
         <v>8</v>
       </c>
       <c r="J155" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K155" t="s">
         <v>14</v>
       </c>
-      <c r="K155" t="s">
-        <v>16</v>
-      </c>
       <c r="L155" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M155" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.35">
@@ -5362,7 +5362,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B157" s="2">
         <v>149</v>
@@ -5374,16 +5374,16 @@
         <v>44196.999988368058</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K157" t="s">
         <v>2</v>
       </c>
       <c r="L157" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M157" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N157">
         <v>31</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B158" s="2">
         <v>150</v>
@@ -5412,16 +5412,16 @@
         <v>10</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L158" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N158" t="s">
         <v>7</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B159" s="2">
         <v>151</v>
@@ -5450,10 +5450,10 @@
         <v>10</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N159">
         <v>154</v>
@@ -5461,7 +5461,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B160" s="2">
         <v>152</v>
@@ -5476,13 +5476,13 @@
         <v>7</v>
       </c>
       <c r="K160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L160" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M160" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.35">
@@ -5503,12 +5503,12 @@
         <v>8</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B162" s="2">
         <v>154</v>
@@ -5526,10 +5526,10 @@
         <v>2</v>
       </c>
       <c r="L162" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M162" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N162">
         <v>32</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B163" s="2">
         <v>155</v>
@@ -5552,19 +5552,19 @@
         <v>7</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L163" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N163" t="s">
         <v>7</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B164" s="2">
         <v>156</v>
@@ -5593,7 +5593,7 @@
         <v>10</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N164">
         <v>155</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B165" s="2">
         <v>157</v>
@@ -5622,16 +5622,16 @@
         <v>10</v>
       </c>
       <c r="J165" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K165" t="s">
         <v>14</v>
       </c>
-      <c r="K165" t="s">
-        <v>16</v>
-      </c>
       <c r="L165" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M165" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.35">
@@ -5648,7 +5648,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B167" s="2">
         <v>159</v>
@@ -5663,16 +5663,16 @@
         <v>1</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K167" t="s">
         <v>2</v>
       </c>
       <c r="L167" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M167" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N167">
         <v>33</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B168" s="2">
         <v>160</v>
@@ -5698,16 +5698,16 @@
         <v>7</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L168" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N168" t="s">
         <v>7</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B169" s="2">
         <v>161</v>
@@ -5727,10 +5727,10 @@
         <v>7</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N169">
         <v>156</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B170" s="2">
         <v>162</v>
@@ -5759,13 +5759,13 @@
         <v>10</v>
       </c>
       <c r="K170" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L170" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M170" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.35">
@@ -5789,12 +5789,12 @@
         <v>10</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B172" s="2">
         <v>164</v>
@@ -5812,10 +5812,10 @@
         <v>2</v>
       </c>
       <c r="L172" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M172" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N172">
         <v>34</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B173" s="2">
         <v>165</v>
@@ -5841,19 +5841,19 @@
         <v>7</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L173" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M173" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N173" t="s">
         <v>7</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B174" s="2">
         <v>166</v>
@@ -5879,7 +5879,7 @@
         <v>7</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N174">
         <v>157</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B175" s="2">
         <v>167</v>
@@ -5902,16 +5902,16 @@
         <v>8</v>
       </c>
       <c r="J175" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K175" t="s">
         <v>14</v>
       </c>
-      <c r="K175" t="s">
-        <v>16</v>
-      </c>
       <c r="L175" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M175" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.35">
@@ -5931,7 +5931,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B177" s="2">
         <v>169</v>
@@ -5949,16 +5949,16 @@
         <v>10</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K177" t="s">
         <v>2</v>
       </c>
       <c r="L177" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M177" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N177">
         <v>35</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B178" s="2">
         <v>170</v>
@@ -5981,16 +5981,16 @@
         <v>7</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L178" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N178" t="s">
         <v>7</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B179" s="2">
         <v>171</v>
@@ -6016,10 +6016,10 @@
         <v>7</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N179">
         <v>158</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B180" s="2">
         <v>172</v>
@@ -6045,13 +6045,13 @@
         <v>7</v>
       </c>
       <c r="K180" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L180" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M180" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.35">
@@ -6069,12 +6069,12 @@
         <v>8</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B182" s="2">
         <v>174</v>
@@ -6098,10 +6098,10 @@
         <v>2</v>
       </c>
       <c r="L182" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M182" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N182">
         <v>36</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B183" s="2">
         <v>175</v>
@@ -6127,19 +6127,19 @@
         <v>10</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L183" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M183" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N183" t="s">
         <v>7</v>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B184" s="2">
         <v>176</v>
@@ -6162,7 +6162,7 @@
         <v>7</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N184">
         <v>159</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B185" s="2">
         <v>177</v>
@@ -6188,16 +6188,16 @@
         <v>8</v>
       </c>
       <c r="J185" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K185" t="s">
         <v>14</v>
       </c>
-      <c r="K185" t="s">
-        <v>16</v>
-      </c>
       <c r="L185" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M185" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.35">
@@ -6217,7 +6217,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B187" s="2">
         <v>179</v>
@@ -6229,16 +6229,16 @@
         <v>4</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K187" t="s">
         <v>2</v>
       </c>
       <c r="L187" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M187" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N187">
         <v>37</v>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B188" s="2">
         <v>180</v>
@@ -6267,16 +6267,16 @@
         <v>10</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L188" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M188" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N188" t="s">
         <v>7</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B189" s="2">
         <v>181</v>
@@ -6305,10 +6305,10 @@
         <v>10</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N189">
         <v>160</v>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B190" s="2">
         <v>182</v>
@@ -6328,13 +6328,13 @@
         <v>7</v>
       </c>
       <c r="K190" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L190" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M190" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.35">
@@ -6355,12 +6355,12 @@
         <v>8</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B192" s="2">
         <v>184</v>
@@ -6381,10 +6381,10 @@
         <v>2</v>
       </c>
       <c r="L192" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M192" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N192">
         <v>38</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B193" s="2">
         <v>185</v>
@@ -6407,19 +6407,19 @@
         <v>7</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L193" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M193" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N193" t="s">
         <v>7</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B194" s="2">
         <v>186</v>
@@ -6448,7 +6448,7 @@
         <v>10</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N194">
         <v>161</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B195" s="2">
         <v>187</v>
@@ -6477,16 +6477,16 @@
         <v>10</v>
       </c>
       <c r="J195" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K195" t="s">
         <v>14</v>
       </c>
-      <c r="K195" t="s">
-        <v>16</v>
-      </c>
       <c r="L195" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M195" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.35">
@@ -6503,7 +6503,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B197" s="2">
         <v>189</v>
@@ -6515,16 +6515,16 @@
         <v>1</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K197" t="s">
         <v>2</v>
       </c>
       <c r="L197" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M197" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N197">
         <v>39</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B198" s="2">
         <v>190</v>
@@ -6550,16 +6550,16 @@
         <v>7</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L198" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M198" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N198" t="s">
         <v>7</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B199" s="2">
         <v>191</v>
@@ -6582,10 +6582,10 @@
         <v>7</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N199">
         <v>162</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B200" s="2">
         <v>192</v>
@@ -6614,13 +6614,13 @@
         <v>10</v>
       </c>
       <c r="K200" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L200" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M200" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.35">
@@ -6644,12 +6644,12 @@
         <v>10</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B202" s="2">
         <v>194</v>
@@ -6667,10 +6667,10 @@
         <v>2</v>
       </c>
       <c r="L202" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M202" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N202">
         <v>40</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B203" s="2">
         <v>195</v>
@@ -6696,19 +6696,19 @@
         <v>7</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L203" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M203" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N203" t="s">
         <v>7</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B204" s="2">
         <v>196</v>
@@ -6731,7 +6731,7 @@
         <v>7</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N204">
         <v>163</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B205" s="2">
         <v>197</v>
@@ -6754,16 +6754,16 @@
         <v>8</v>
       </c>
       <c r="J205" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K205" t="s">
         <v>14</v>
       </c>
-      <c r="K205" t="s">
-        <v>16</v>
-      </c>
       <c r="L205" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M205" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.35">
@@ -6786,7 +6786,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B207" s="2">
         <v>199</v>
@@ -6804,16 +6804,16 @@
         <v>10</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K207" t="s">
         <v>2</v>
       </c>
       <c r="L207" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M207" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N207">
         <v>41</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B208" s="2">
         <v>200</v>
@@ -6836,16 +6836,16 @@
         <v>7</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L208" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M208" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N208" t="s">
         <v>7</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B209" s="2">
         <v>201</v>
@@ -6871,10 +6871,10 @@
         <v>7</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N209">
         <v>164</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B210" s="2">
         <v>202</v>
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="K210" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L210" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M210" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.35">
@@ -6921,12 +6921,12 @@
         <v>8</v>
       </c>
       <c r="J211" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B212" s="2">
         <v>204</v>
@@ -6950,10 +6950,10 @@
         <v>2</v>
       </c>
       <c r="L212" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M212" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N212">
         <v>42</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B213" s="2">
         <v>205</v>
@@ -6982,19 +6982,19 @@
         <v>10</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J213" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L213" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M213" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N213" t="s">
         <v>7</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B214" s="2">
         <v>206</v>
@@ -7017,7 +7017,7 @@
         <v>7</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N214">
         <v>165</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B215" s="2">
         <v>207</v>
@@ -7043,16 +7043,16 @@
         <v>8</v>
       </c>
       <c r="J215" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K215" t="s">
         <v>14</v>
       </c>
-      <c r="K215" t="s">
-        <v>16</v>
-      </c>
       <c r="L215" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M215" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.35">
@@ -7072,7 +7072,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B217" s="2">
         <v>209</v>
@@ -7084,16 +7084,16 @@
         <v>462</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K217" t="s">
         <v>2</v>
       </c>
       <c r="L217" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M217" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N217">
         <v>43</v>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B218" s="2">
         <v>210</v>
@@ -7119,16 +7119,16 @@
         <v>10</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L218" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M218" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N218" t="s">
         <v>7</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B219" s="2">
         <v>211</v>
@@ -7157,10 +7157,10 @@
         <v>10</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N219">
         <v>166</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B220" s="2">
         <v>212</v>
@@ -7183,13 +7183,13 @@
         <v>7</v>
       </c>
       <c r="K220" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L220" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M220" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.35">
@@ -7210,12 +7210,12 @@
         <v>8</v>
       </c>
       <c r="J221" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B222" s="2">
         <v>214</v>
@@ -7236,10 +7236,10 @@
         <v>2</v>
       </c>
       <c r="L222" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M222" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N222">
         <v>44</v>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B223" s="2">
         <v>215</v>
@@ -7262,19 +7262,19 @@
         <v>7</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L223" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M223" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N223" t="s">
         <v>7</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B224" s="2">
         <v>216</v>
@@ -7303,7 +7303,7 @@
         <v>10</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N224">
         <v>167</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B225" s="2">
         <v>217</v>
@@ -7329,16 +7329,16 @@
         <v>10</v>
       </c>
       <c r="J225" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K225" t="s">
         <v>14</v>
       </c>
-      <c r="K225" t="s">
-        <v>16</v>
-      </c>
       <c r="L225" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M225" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.35">
@@ -7355,7 +7355,7 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B227" s="2">
         <v>219</v>
@@ -7370,16 +7370,16 @@
         <v>1</v>
       </c>
       <c r="J227" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K227" t="s">
         <v>2</v>
       </c>
       <c r="L227" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M227" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N227">
         <v>45</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B228" s="2">
         <v>220</v>
@@ -7405,16 +7405,16 @@
         <v>7</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L228" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M228" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N228" t="s">
         <v>7</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B229" s="2">
         <v>221</v>
@@ -7437,10 +7437,10 @@
         <v>7</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J229" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N229">
         <v>168</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B230" s="2">
         <v>222</v>
@@ -7469,13 +7469,13 @@
         <v>10</v>
       </c>
       <c r="K230" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L230" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M230" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.35">
@@ -7499,12 +7499,12 @@
         <v>10</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B232" s="2">
         <v>224</v>
@@ -7519,10 +7519,10 @@
         <v>2</v>
       </c>
       <c r="L232" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M232" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N232">
         <v>46</v>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B233" s="2">
         <v>225</v>
@@ -7548,19 +7548,19 @@
         <v>7</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L233" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M233" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N233" t="s">
         <v>7</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B234" s="2">
         <v>226</v>
@@ -7586,7 +7586,7 @@
         <v>7</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N234">
         <v>169</v>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B235" s="2">
         <v>227</v>
@@ -7609,16 +7609,16 @@
         <v>8</v>
       </c>
       <c r="J235" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K235" t="s">
         <v>14</v>
       </c>
-      <c r="K235" t="s">
-        <v>16</v>
-      </c>
       <c r="L235" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M235" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.35">
@@ -7641,7 +7641,7 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B237" s="2">
         <v>229</v>
@@ -7659,16 +7659,16 @@
         <v>10</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K237" t="s">
         <v>2</v>
       </c>
       <c r="L237" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M237" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N237">
         <v>47</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B238" s="2">
         <v>230</v>
@@ -7691,16 +7691,16 @@
         <v>7</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L238" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M238" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N238" t="s">
         <v>7</v>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B239" s="2">
         <v>231</v>
@@ -7723,10 +7723,10 @@
         <v>7</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N239">
         <v>170</v>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B240" s="2">
         <v>232</v>
@@ -7752,13 +7752,13 @@
         <v>7</v>
       </c>
       <c r="K240" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L240" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M240" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.35">
@@ -7776,12 +7776,12 @@
         <v>8</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B242" s="2">
         <v>234</v>
@@ -7805,10 +7805,10 @@
         <v>2</v>
       </c>
       <c r="L242" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M242" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N242">
         <v>48</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B243" s="2">
         <v>235</v>
@@ -7837,19 +7837,19 @@
         <v>10</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J243" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L243" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M243" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N243" t="s">
         <v>7</v>
@@ -7857,7 +7857,7 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B244" s="2">
         <v>236</v>
@@ -7872,7 +7872,7 @@
         <v>7</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N244">
         <v>171</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B245" s="2">
         <v>237</v>
@@ -7898,16 +7898,16 @@
         <v>8</v>
       </c>
       <c r="J245" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K245" t="s">
         <v>14</v>
       </c>
-      <c r="K245" t="s">
-        <v>16</v>
-      </c>
       <c r="L245" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M245" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.35">
@@ -7924,7 +7924,7 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B247" s="2">
         <v>239</v>
@@ -7936,16 +7936,16 @@
         <v>36</v>
       </c>
       <c r="J247" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K247" t="s">
         <v>2</v>
       </c>
       <c r="L247" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M247" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N247">
         <v>49</v>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B248" s="2">
         <v>240</v>
@@ -7974,16 +7974,16 @@
         <v>10</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L248" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M248" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N248" t="s">
         <v>7</v>
@@ -7991,7 +7991,7 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B249" s="2">
         <v>241</v>
@@ -8012,10 +8012,10 @@
         <v>10</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N249">
         <v>172</v>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B250" s="2">
         <v>242</v>
@@ -8038,13 +8038,13 @@
         <v>7</v>
       </c>
       <c r="K250" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L250" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M250" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.35">
@@ -8065,12 +8065,12 @@
         <v>8</v>
       </c>
       <c r="J251" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B252" s="2">
         <v>244</v>
@@ -8091,10 +8091,10 @@
         <v>2</v>
       </c>
       <c r="L252" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M252" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N252">
         <v>50</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B253" s="2">
         <v>245</v>
@@ -8114,19 +8114,19 @@
         <v>7</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L253" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M253" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N253" t="s">
         <v>7</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B254" s="2">
         <v>246</v>
@@ -8155,7 +8155,7 @@
         <v>10</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N254">
         <v>173</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B255" s="2">
         <v>247</v>
@@ -8184,16 +8184,16 @@
         <v>10</v>
       </c>
       <c r="J255" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K255" t="s">
         <v>14</v>
       </c>
-      <c r="K255" t="s">
-        <v>16</v>
-      </c>
       <c r="L255" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M255" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.35">
@@ -8210,7 +8210,7 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B257" s="2">
         <v>249</v>
@@ -8225,16 +8225,16 @@
         <v>1</v>
       </c>
       <c r="J257" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K257" t="s">
         <v>2</v>
       </c>
       <c r="L257" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N257">
         <v>51</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B258" s="2">
         <v>250</v>
@@ -8260,16 +8260,16 @@
         <v>7</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L258" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M258" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N258" t="s">
         <v>7</v>
@@ -8277,7 +8277,7 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B259" s="2">
         <v>251</v>
@@ -8292,10 +8292,10 @@
         <v>7</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J259" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N259">
         <v>174</v>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B260" s="2">
         <v>252</v>
@@ -8321,13 +8321,13 @@
         <v>10</v>
       </c>
       <c r="K260" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L260" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M260" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.35">
@@ -8351,12 +8351,12 @@
         <v>10</v>
       </c>
       <c r="J261" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B262" s="2">
         <v>254</v>
@@ -8374,10 +8374,10 @@
         <v>2</v>
       </c>
       <c r="L262" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M262" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N262">
         <v>52</v>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B263" s="2">
         <v>255</v>
@@ -8403,19 +8403,19 @@
         <v>7</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J263" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L263" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M263" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N263" t="s">
         <v>7</v>
@@ -8423,7 +8423,7 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B264" s="2">
         <v>256</v>
@@ -8441,7 +8441,7 @@
         <v>7</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N264">
         <v>175</v>
@@ -8449,7 +8449,7 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B265" s="2">
         <v>257</v>
@@ -8464,16 +8464,16 @@
         <v>8</v>
       </c>
       <c r="J265" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K265" t="s">
         <v>14</v>
       </c>
-      <c r="K265" t="s">
-        <v>16</v>
-      </c>
       <c r="L265" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M265" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.35">
@@ -8496,7 +8496,7 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B267" s="2">
         <v>259</v>
@@ -8511,16 +8511,16 @@
         <v>10</v>
       </c>
       <c r="J267" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K267" t="s">
         <v>2</v>
       </c>
       <c r="L267" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M267" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N267">
         <v>53</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B268" s="2">
         <v>260</v>
@@ -8543,16 +8543,16 @@
         <v>7</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L268" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M268" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N268" t="s">
         <v>7</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B269" s="2">
         <v>261</v>
@@ -8578,10 +8578,10 @@
         <v>7</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J269" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N269">
         <v>176</v>
@@ -8589,7 +8589,7 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B270" s="2">
         <v>262</v>
@@ -8607,13 +8607,13 @@
         <v>7</v>
       </c>
       <c r="K270" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L270" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M270" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.35">
@@ -8631,12 +8631,12 @@
         <v>8</v>
       </c>
       <c r="J271" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B272" s="2">
         <v>264</v>
@@ -8660,10 +8660,10 @@
         <v>2</v>
       </c>
       <c r="L272" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M272" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N272">
         <v>54</v>
@@ -8671,7 +8671,7 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B273" s="2">
         <v>265</v>
@@ -8692,19 +8692,19 @@
         <v>10</v>
       </c>
       <c r="I273" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J273" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L273" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M273" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N273" t="s">
         <v>7</v>
@@ -8712,7 +8712,7 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B274" s="2">
         <v>266</v>
@@ -8724,7 +8724,7 @@
         <v>7</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="N274">
         <v>177</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B275" s="2">
         <v>267</v>
@@ -8750,16 +8750,16 @@
         <v>8</v>
       </c>
       <c r="J275" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K275" t="s">
         <v>14</v>
       </c>
-      <c r="K275" t="s">
-        <v>16</v>
-      </c>
       <c r="L275" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M275" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.35">
@@ -8779,7 +8779,7 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B277" s="2">
         <v>269</v>
@@ -8791,16 +8791,16 @@
         <v>44196.999988368058</v>
       </c>
       <c r="J277" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="K277" t="s">
         <v>2</v>
       </c>
       <c r="L277" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M277" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N277">
         <v>55</v>
@@ -8808,7 +8808,7 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B278" s="2">
         <v>270</v>
@@ -8829,16 +8829,16 @@
         <v>10</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L278" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M278" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N278" t="s">
         <v>7</v>
@@ -8846,7 +8846,7 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B279" s="2">
         <v>271</v>
@@ -8867,10 +8867,10 @@
         <v>10</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="J279" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="N279">
         <v>178</v>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B280" s="2">
         <v>272</v>
@@ -8893,13 +8893,13 @@
         <v>7</v>
       </c>
       <c r="K280" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L280" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M280" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.35">
@@ -8917,69 +8917,69 @@
         <v>8</v>
       </c>
       <c r="J281" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{DA957EC5-CC18-4640-A04D-6511F7A40713}"/>
+    <hyperlink ref="I4" r:id="rId1" display="alexandros@gelbessis.gr" xr:uid="{DA957EC5-CC18-4640-A04D-6511F7A40713}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{B4D34315-CB23-406D-A054-0F5691B6DA86}"/>
-    <hyperlink ref="I9" r:id="rId3" xr:uid="{76AD73EC-38F0-43C3-B89A-3549A5961771}"/>
-    <hyperlink ref="I14" r:id="rId4" xr:uid="{627CC14E-8AD1-4260-8CA1-F9FD32C1CAC1}"/>
-    <hyperlink ref="I19" r:id="rId5" xr:uid="{466F2BCF-2939-4250-B03E-B8002ED6405C}"/>
-    <hyperlink ref="I24" r:id="rId6" xr:uid="{04E0E948-8F00-49BE-80A9-74FCCC71C308}"/>
-    <hyperlink ref="I29" r:id="rId7" xr:uid="{0781A250-8D19-4714-AEB1-9AB3D1601CA1}"/>
-    <hyperlink ref="I34" r:id="rId8" xr:uid="{B29D4AC2-CD38-4373-8878-18E2CB0907BF}"/>
-    <hyperlink ref="I39" r:id="rId9" xr:uid="{7DBCC6D1-E83B-4263-9BAC-C37C8E3AF86A}"/>
-    <hyperlink ref="I44" r:id="rId10" xr:uid="{7747B1D3-2496-401A-B426-45952E1BCE01}"/>
-    <hyperlink ref="I49" r:id="rId11" xr:uid="{43DDBF70-AFBB-459D-85F9-A130B6F94CA8}"/>
-    <hyperlink ref="I54" r:id="rId12" xr:uid="{A53541EB-193C-4A75-96C3-BDCFB0C15718}"/>
-    <hyperlink ref="I59" r:id="rId13" xr:uid="{6B24F51E-61CA-49FB-820E-EA5D32246BFA}"/>
-    <hyperlink ref="I64" r:id="rId14" xr:uid="{D4C8F7D9-FFF0-4F9F-A471-1EFFA4C349BD}"/>
-    <hyperlink ref="I69" r:id="rId15" xr:uid="{D86BF91C-DA68-40D6-A940-10A3354615C2}"/>
-    <hyperlink ref="I74" r:id="rId16" xr:uid="{9702209D-3C9C-4444-A75E-A44DAA8D66CE}"/>
-    <hyperlink ref="I79" r:id="rId17" xr:uid="{1A820731-20F3-4948-8C9D-CD8D691A73D7}"/>
-    <hyperlink ref="I84" r:id="rId18" xr:uid="{D7324E06-B5BB-49F4-83E0-B3E0B1546013}"/>
-    <hyperlink ref="I89" r:id="rId19" xr:uid="{8FE8499C-4DDA-4D0A-9BDC-3774E7BA63D5}"/>
-    <hyperlink ref="I94" r:id="rId20" xr:uid="{5DF2A1AF-2343-4259-9362-208F9409185D}"/>
-    <hyperlink ref="I99" r:id="rId21" xr:uid="{39DEC57E-6FAC-4345-93FC-238FF236B676}"/>
-    <hyperlink ref="I104" r:id="rId22" xr:uid="{23BADF1A-F4F7-414D-9C81-B163824363C5}"/>
-    <hyperlink ref="I109" r:id="rId23" xr:uid="{CBE676D6-50AC-4A92-921A-32BE402B33CC}"/>
-    <hyperlink ref="I114" r:id="rId24" xr:uid="{6989D838-4035-443B-B897-10F71283AB4E}"/>
-    <hyperlink ref="I119" r:id="rId25" xr:uid="{50B23BF6-A95E-4128-9709-90909DF5B183}"/>
-    <hyperlink ref="I124" r:id="rId26" xr:uid="{A9B0F288-3492-4E76-A459-1C3553858DC6}"/>
-    <hyperlink ref="I129" r:id="rId27" xr:uid="{4C7F20E9-3E22-4A53-A644-413657359C61}"/>
-    <hyperlink ref="I134" r:id="rId28" xr:uid="{882E512A-725C-451D-994B-800A63587299}"/>
-    <hyperlink ref="I139" r:id="rId29" xr:uid="{BE0000A5-6E4C-4B44-8121-7B653CF08847}"/>
-    <hyperlink ref="I144" r:id="rId30" xr:uid="{F064C1C2-A25D-4A23-B7C3-6AACBDB85F33}"/>
-    <hyperlink ref="I149" r:id="rId31" xr:uid="{BE873AB1-129C-4353-AE59-5955385CC9D1}"/>
-    <hyperlink ref="I154" r:id="rId32" xr:uid="{D99A7996-D62C-42B4-A393-7D39588D7A6D}"/>
-    <hyperlink ref="I159" r:id="rId33" xr:uid="{70C16914-175A-4D94-9AF0-4233DC79269D}"/>
-    <hyperlink ref="I164" r:id="rId34" xr:uid="{E6C5319A-82F7-47EF-9258-E3E86932F716}"/>
-    <hyperlink ref="I169" r:id="rId35" xr:uid="{449CD816-8BEB-4AC5-B08C-DF0E1CAFA6A0}"/>
-    <hyperlink ref="I174" r:id="rId36" xr:uid="{63D4ABAA-F74B-498A-8456-481DB52BD042}"/>
-    <hyperlink ref="I179" r:id="rId37" xr:uid="{2F3089E6-FC09-4AD5-A87B-501AEA09D056}"/>
-    <hyperlink ref="I184" r:id="rId38" xr:uid="{E46CB943-D61B-4CF4-B7BA-B9909B93DF06}"/>
-    <hyperlink ref="I189" r:id="rId39" xr:uid="{5D2C0015-B3BA-49D7-9E43-690FDE00BA88}"/>
-    <hyperlink ref="I194" r:id="rId40" xr:uid="{A6FA6FD9-8AC2-43AD-B31F-5F2DAA7D07AB}"/>
-    <hyperlink ref="I199" r:id="rId41" xr:uid="{4AFE46BF-ED70-4552-A8FB-F53EA2322715}"/>
-    <hyperlink ref="I204" r:id="rId42" xr:uid="{69563D32-4AF7-45DA-A1D6-6C04BED7C881}"/>
-    <hyperlink ref="I209" r:id="rId43" xr:uid="{2C126BB5-DCE9-4808-B2C5-6DFA1A894EE2}"/>
-    <hyperlink ref="I214" r:id="rId44" xr:uid="{456E11B7-B454-496A-908A-A755B3454243}"/>
-    <hyperlink ref="I219" r:id="rId45" xr:uid="{DA66069E-D7DA-4F50-B147-E3FEC9922E96}"/>
-    <hyperlink ref="I224" r:id="rId46" xr:uid="{103C41FC-FB39-4699-A227-775E4933F61A}"/>
-    <hyperlink ref="I229" r:id="rId47" xr:uid="{47A3294A-F12C-49AB-8011-1F0FD50F97FD}"/>
-    <hyperlink ref="I234" r:id="rId48" xr:uid="{E361E6A5-5086-4326-9044-17B4D3BB61BA}"/>
-    <hyperlink ref="I239" r:id="rId49" xr:uid="{497C2EB8-A9D3-4A5C-B97C-0461704ECC9F}"/>
-    <hyperlink ref="I244" r:id="rId50" xr:uid="{8FAE26DE-0CB7-4395-A81F-BD1A11A0EFEA}"/>
-    <hyperlink ref="I249" r:id="rId51" xr:uid="{FA33161A-7574-417B-B7D9-5A255F865D65}"/>
-    <hyperlink ref="I254" r:id="rId52" xr:uid="{3D5F3ACD-85CD-4DCF-AA88-3BB367612E73}"/>
-    <hyperlink ref="I259" r:id="rId53" xr:uid="{5604DF26-2FDF-430B-8061-626CD7C8E03A}"/>
-    <hyperlink ref="I264" r:id="rId54" xr:uid="{03193D31-9424-436A-B668-CC0C8DF461A6}"/>
-    <hyperlink ref="I269" r:id="rId55" xr:uid="{C2405333-6040-401E-AE96-863661AC5020}"/>
-    <hyperlink ref="I274" r:id="rId56" xr:uid="{EB27735C-C0CE-47A4-ACA6-FB60628CB27A}"/>
-    <hyperlink ref="I279" r:id="rId57" xr:uid="{9A9B39BA-ABC2-44F0-9E69-9D786BD6AD5F}"/>
+    <hyperlink ref="I9" r:id="rId3" display="alexandros@gelbessis.gr" xr:uid="{76AD73EC-38F0-43C3-B89A-3549A5961771}"/>
+    <hyperlink ref="I14" r:id="rId4" display="alexandros@gelbessis.gr" xr:uid="{627CC14E-8AD1-4260-8CA1-F9FD32C1CAC1}"/>
+    <hyperlink ref="I19" r:id="rId5" display="alexandros@gelbessis.gr" xr:uid="{466F2BCF-2939-4250-B03E-B8002ED6405C}"/>
+    <hyperlink ref="I24" r:id="rId6" display="alexandros@gelbessis.gr" xr:uid="{04E0E948-8F00-49BE-80A9-74FCCC71C308}"/>
+    <hyperlink ref="I29" r:id="rId7" display="alexandros@gelbessis.gr" xr:uid="{0781A250-8D19-4714-AEB1-9AB3D1601CA1}"/>
+    <hyperlink ref="I34" r:id="rId8" display="alexandros@gelbessis.gr" xr:uid="{B29D4AC2-CD38-4373-8878-18E2CB0907BF}"/>
+    <hyperlink ref="I39" r:id="rId9" display="alexandros@gelbessis.gr" xr:uid="{7DBCC6D1-E83B-4263-9BAC-C37C8E3AF86A}"/>
+    <hyperlink ref="I44" r:id="rId10" display="alexandros@gelbessis.gr" xr:uid="{7747B1D3-2496-401A-B426-45952E1BCE01}"/>
+    <hyperlink ref="I49" r:id="rId11" display="alexandros@gelbessis.gr" xr:uid="{43DDBF70-AFBB-459D-85F9-A130B6F94CA8}"/>
+    <hyperlink ref="I54" r:id="rId12" display="alexandros@gelbessis.gr" xr:uid="{A53541EB-193C-4A75-96C3-BDCFB0C15718}"/>
+    <hyperlink ref="I59" r:id="rId13" display="alexandros@gelbessis.gr" xr:uid="{6B24F51E-61CA-49FB-820E-EA5D32246BFA}"/>
+    <hyperlink ref="I64" r:id="rId14" display="alexandros@gelbessis.gr" xr:uid="{D4C8F7D9-FFF0-4F9F-A471-1EFFA4C349BD}"/>
+    <hyperlink ref="I69" r:id="rId15" display="alexandros@gelbessis.gr" xr:uid="{D86BF91C-DA68-40D6-A940-10A3354615C2}"/>
+    <hyperlink ref="I74" r:id="rId16" display="alexandros@gelbessis.gr" xr:uid="{9702209D-3C9C-4444-A75E-A44DAA8D66CE}"/>
+    <hyperlink ref="I79" r:id="rId17" display="alexandros@gelbessis.gr" xr:uid="{1A820731-20F3-4948-8C9D-CD8D691A73D7}"/>
+    <hyperlink ref="I84" r:id="rId18" display="alexandros@gelbessis.gr" xr:uid="{D7324E06-B5BB-49F4-83E0-B3E0B1546013}"/>
+    <hyperlink ref="I89" r:id="rId19" display="alexandros@gelbessis.gr" xr:uid="{8FE8499C-4DDA-4D0A-9BDC-3774E7BA63D5}"/>
+    <hyperlink ref="I94" r:id="rId20" display="alexandros@gelbessis.gr" xr:uid="{5DF2A1AF-2343-4259-9362-208F9409185D}"/>
+    <hyperlink ref="I99" r:id="rId21" display="alexandros@gelbessis.gr" xr:uid="{39DEC57E-6FAC-4345-93FC-238FF236B676}"/>
+    <hyperlink ref="I104" r:id="rId22" display="alexandros@gelbessis.gr" xr:uid="{23BADF1A-F4F7-414D-9C81-B163824363C5}"/>
+    <hyperlink ref="I109" r:id="rId23" display="alexandros@gelbessis.gr" xr:uid="{CBE676D6-50AC-4A92-921A-32BE402B33CC}"/>
+    <hyperlink ref="I114" r:id="rId24" display="alexandros@gelbessis.gr" xr:uid="{6989D838-4035-443B-B897-10F71283AB4E}"/>
+    <hyperlink ref="I119" r:id="rId25" display="alexandros@gelbessis.gr" xr:uid="{50B23BF6-A95E-4128-9709-90909DF5B183}"/>
+    <hyperlink ref="I124" r:id="rId26" display="alexandros@gelbessis.gr" xr:uid="{A9B0F288-3492-4E76-A459-1C3553858DC6}"/>
+    <hyperlink ref="I129" r:id="rId27" display="alexandros@gelbessis.gr" xr:uid="{4C7F20E9-3E22-4A53-A644-413657359C61}"/>
+    <hyperlink ref="I134" r:id="rId28" display="alexandros@gelbessis.gr" xr:uid="{882E512A-725C-451D-994B-800A63587299}"/>
+    <hyperlink ref="I139" r:id="rId29" display="alexandros@gelbessis.gr" xr:uid="{BE0000A5-6E4C-4B44-8121-7B653CF08847}"/>
+    <hyperlink ref="I144" r:id="rId30" display="alexandros@gelbessis.gr" xr:uid="{F064C1C2-A25D-4A23-B7C3-6AACBDB85F33}"/>
+    <hyperlink ref="I149" r:id="rId31" display="alexandros@gelbessis.gr" xr:uid="{BE873AB1-129C-4353-AE59-5955385CC9D1}"/>
+    <hyperlink ref="I154" r:id="rId32" display="alexandros@gelbessis.gr" xr:uid="{D99A7996-D62C-42B4-A393-7D39588D7A6D}"/>
+    <hyperlink ref="I159" r:id="rId33" display="alexandros@gelbessis.gr" xr:uid="{70C16914-175A-4D94-9AF0-4233DC79269D}"/>
+    <hyperlink ref="I164" r:id="rId34" display="alexandros@gelbessis.gr" xr:uid="{E6C5319A-82F7-47EF-9258-E3E86932F716}"/>
+    <hyperlink ref="I169" r:id="rId35" display="alexandros@gelbessis.gr" xr:uid="{449CD816-8BEB-4AC5-B08C-DF0E1CAFA6A0}"/>
+    <hyperlink ref="I174" r:id="rId36" display="alexandros@gelbessis.gr" xr:uid="{63D4ABAA-F74B-498A-8456-481DB52BD042}"/>
+    <hyperlink ref="I179" r:id="rId37" display="alexandros@gelbessis.gr" xr:uid="{2F3089E6-FC09-4AD5-A87B-501AEA09D056}"/>
+    <hyperlink ref="I184" r:id="rId38" display="alexandros@gelbessis.gr" xr:uid="{E46CB943-D61B-4CF4-B7BA-B9909B93DF06}"/>
+    <hyperlink ref="I189" r:id="rId39" display="alexandros@gelbessis.gr" xr:uid="{5D2C0015-B3BA-49D7-9E43-690FDE00BA88}"/>
+    <hyperlink ref="I194" r:id="rId40" display="alexandros@gelbessis.gr" xr:uid="{A6FA6FD9-8AC2-43AD-B31F-5F2DAA7D07AB}"/>
+    <hyperlink ref="I199" r:id="rId41" display="alexandros@gelbessis.gr" xr:uid="{4AFE46BF-ED70-4552-A8FB-F53EA2322715}"/>
+    <hyperlink ref="I204" r:id="rId42" display="alexandros@gelbessis.gr" xr:uid="{69563D32-4AF7-45DA-A1D6-6C04BED7C881}"/>
+    <hyperlink ref="I209" r:id="rId43" display="alexandros@gelbessis.gr" xr:uid="{2C126BB5-DCE9-4808-B2C5-6DFA1A894EE2}"/>
+    <hyperlink ref="I214" r:id="rId44" display="alexandros@gelbessis.gr" xr:uid="{456E11B7-B454-496A-908A-A755B3454243}"/>
+    <hyperlink ref="I219" r:id="rId45" display="alexandros@gelbessis.gr" xr:uid="{DA66069E-D7DA-4F50-B147-E3FEC9922E96}"/>
+    <hyperlink ref="I224" r:id="rId46" display="alexandros@gelbessis.gr" xr:uid="{103C41FC-FB39-4699-A227-775E4933F61A}"/>
+    <hyperlink ref="I229" r:id="rId47" display="alexandros@gelbessis.gr" xr:uid="{47A3294A-F12C-49AB-8011-1F0FD50F97FD}"/>
+    <hyperlink ref="I234" r:id="rId48" display="alexandros@gelbessis.gr" xr:uid="{E361E6A5-5086-4326-9044-17B4D3BB61BA}"/>
+    <hyperlink ref="I239" r:id="rId49" display="alexandros@gelbessis.gr" xr:uid="{497C2EB8-A9D3-4A5C-B97C-0461704ECC9F}"/>
+    <hyperlink ref="I244" r:id="rId50" display="alexandros@gelbessis.gr" xr:uid="{8FAE26DE-0CB7-4395-A81F-BD1A11A0EFEA}"/>
+    <hyperlink ref="I249" r:id="rId51" display="alexandros@gelbessis.gr" xr:uid="{FA33161A-7574-417B-B7D9-5A255F865D65}"/>
+    <hyperlink ref="I254" r:id="rId52" display="alexandros@gelbessis.gr" xr:uid="{3D5F3ACD-85CD-4DCF-AA88-3BB367612E73}"/>
+    <hyperlink ref="I259" r:id="rId53" display="alexandros@gelbessis.gr" xr:uid="{5604DF26-2FDF-430B-8061-626CD7C8E03A}"/>
+    <hyperlink ref="I264" r:id="rId54" display="alexandros@gelbessis.gr" xr:uid="{03193D31-9424-436A-B668-CC0C8DF461A6}"/>
+    <hyperlink ref="I269" r:id="rId55" display="alexandros@gelbessis.gr" xr:uid="{C2405333-6040-401E-AE96-863661AC5020}"/>
+    <hyperlink ref="I274" r:id="rId56" display="alexandros@gelbessis.gr" xr:uid="{EB27735C-C0CE-47A4-ACA6-FB60628CB27A}"/>
+    <hyperlink ref="I279" r:id="rId57" display="alexandros@gelbessis.gr" xr:uid="{9A9B39BA-ABC2-44F0-9E69-9D786BD6AD5F}"/>
     <hyperlink ref="I8" r:id="rId58" xr:uid="{ECDEF6FA-7558-417C-9371-881F52719F8B}"/>
     <hyperlink ref="I13" r:id="rId59" xr:uid="{5C035017-7B12-49EF-98D7-584BFDD28800}"/>
     <hyperlink ref="I18" r:id="rId60" xr:uid="{FE033210-35E5-4EF7-B340-5654D79AD2A8}"/>

--- a/samples/testDB_test.xlsx
+++ b/samples/testDB_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\var\projects\k8scms\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FEA44E-AFDB-46A9-9726-F8B0E0FF6896}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578E781F-277C-4B92-A5E8-7ACD53CCABB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="160">
   <si>
     <t>string</t>
   </si>
@@ -490,6 +490,21 @@
   </si>
   <si>
     <t>+30 6977777777</t>
+  </si>
+  <si>
+    <t>jsonWithSchema</t>
+  </si>
+  <si>
+    <t>{"var1":1,"var2":[1,2]}</t>
+  </si>
+  <si>
+    <t>{"var1":1,"var3":3}</t>
+  </si>
+  <si>
+    <t>geoJson</t>
+  </si>
+  <si>
+    <t>{"type":"Point","coordinates":[37.9714648,23.7280593]}</t>
   </si>
 </sst>
 </file>
@@ -848,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O281"/>
+  <dimension ref="A1:Q281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -861,17 +876,17 @@
     <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.7265625" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="34.7265625" customWidth="1"/>
+    <col min="11" max="11" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -897,28 +912,34 @@
         <v>9</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -940,26 +961,32 @@
       <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -978,29 +1005,33 @@
       <c r="H3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1016,17 +1047,18 @@
       <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>123.99</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1045,26 +1077,27 @@
       <c r="H5" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" s="4"/>
+      <c r="L5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>12.321099999999999</v>
       </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>-1</v>
@@ -1081,14 +1114,14 @@
       <c r="H6" t="s">
         <v>145</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>151</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1101,26 +1134,26 @@
       <c r="D7">
         <v>432</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" t="s">
         <v>2</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>1.23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1139,26 +1172,28 @@
       <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>152</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1174,20 +1209,22 @@
       <c r="H9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N9">
+      <c r="L9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9">
         <v>124</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>99.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1203,17 +1240,17 @@
       <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>14</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>32</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>3</v>
@@ -1230,14 +1267,14 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="O11">
+      <c r="L11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11">
         <v>60000000.219999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1256,20 +1293,20 @@
       <c r="F12" t="s">
         <v>7</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>23</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>26</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1285,26 +1322,26 @@
       <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>33</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>27</v>
       </c>
-      <c r="N13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1326,14 +1363,16 @@
       <c r="H14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1352,20 +1391,22 @@
       <c r="H15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="L15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>34</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>8</v>
@@ -1377,7 +1418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,23 +1434,23 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="s">
         <v>2</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>26</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1428,23 +1469,23 @@
       <c r="F18" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>35</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>27</v>
       </c>
-      <c r="N18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1457,17 +1498,17 @@
       <c r="F19" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N19">
+      <c r="L19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1489,17 +1530,19 @@
       <c r="H20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K20" t="s">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="M20" t="s">
         <v>14</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>36</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>13</v>
@@ -1519,11 +1562,13 @@
       <c r="H21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="L21" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1536,20 +1581,20 @@
       <c r="F22" t="s">
         <v>7</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>2</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>26</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1568,26 +1613,26 @@
       <c r="F23" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>37</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>27</v>
       </c>
-      <c r="N23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1606,14 +1651,14 @@
       <c r="G24" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1629,20 +1674,20 @@
       <c r="F25" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="L25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" t="s">
         <v>14</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>38</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>18</v>
@@ -1659,8 +1704,10 @@
       <c r="H26" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1679,23 +1726,25 @@
       <c r="H27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="L27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M27" t="s">
         <v>2</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>23</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>26</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1711,23 +1760,23 @@
       <c r="F28" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>39</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>27</v>
       </c>
-      <c r="N28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1743,17 +1792,17 @@
       <c r="F29" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N29">
+      <c r="L29" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1772,17 +1821,17 @@
       <c r="G30" t="s">
         <v>7</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
         <v>14</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" t="s">
         <v>40</v>
       </c>
-      <c r="M30" t="s">
+      <c r="O30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>23</v>
@@ -1796,11 +1845,11 @@
       <c r="F31" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L31" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -1822,20 +1871,22 @@
       <c r="H32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K32" t="s">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="M32" t="s">
         <v>2</v>
       </c>
-      <c r="L32" t="s">
+      <c r="N32" t="s">
         <v>23</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>26</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1857,26 +1908,28 @@
       <c r="H33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L33" t="s">
+      <c r="N33" t="s">
         <v>41</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" t="s">
         <v>27</v>
       </c>
-      <c r="N33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1892,14 +1945,14 @@
       <c r="G34" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1918,20 +1971,20 @@
       <c r="F35" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="L35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35" t="s">
         <v>14</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" t="s">
         <v>42</v>
       </c>
-      <c r="M35" t="s">
+      <c r="O35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>28</v>
@@ -1943,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -1956,23 +2009,23 @@
       <c r="D37">
         <v>6</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="L37" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M37" t="s">
         <v>2</v>
       </c>
-      <c r="L37" t="s">
+      <c r="N37" t="s">
         <v>23</v>
       </c>
-      <c r="M37" t="s">
+      <c r="O37" t="s">
         <v>26</v>
       </c>
-      <c r="N37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -1994,23 +2047,25 @@
       <c r="H38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
         <v>43</v>
       </c>
-      <c r="M38" t="s">
+      <c r="O38" t="s">
         <v>27</v>
       </c>
-      <c r="N38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2032,17 +2087,19 @@
       <c r="H39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N39">
+      <c r="L39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P39">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2058,17 +2115,17 @@
       <c r="G40" t="s">
         <v>7</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="s">
         <v>14</v>
       </c>
-      <c r="L40" t="s">
+      <c r="N40" t="s">
         <v>44</v>
       </c>
-      <c r="M40" t="s">
+      <c r="O40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>33</v>
@@ -2085,11 +2142,11 @@
       <c r="F41" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L41" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
@@ -2108,20 +2165,20 @@
       <c r="F42" t="s">
         <v>7</v>
       </c>
-      <c r="K42" t="s">
+      <c r="M42" t="s">
         <v>2</v>
       </c>
-      <c r="L42" t="s">
+      <c r="N42" t="s">
         <v>23</v>
       </c>
-      <c r="M42" t="s">
+      <c r="O42" t="s">
         <v>26</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -2134,26 +2191,26 @@
       <c r="F43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="K43" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L43" t="s">
+      <c r="N43" t="s">
         <v>45</v>
       </c>
-      <c r="M43" t="s">
+      <c r="O43" t="s">
         <v>27</v>
       </c>
-      <c r="N43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2175,14 +2232,16 @@
       <c r="H44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2204,20 +2263,22 @@
       <c r="H45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="L45" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M45" t="s">
         <v>14</v>
       </c>
-      <c r="L45" t="s">
+      <c r="N45" t="s">
         <v>46</v>
       </c>
-      <c r="M45" t="s">
+      <c r="O45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>38</v>
@@ -2229,7 +2290,7 @@
         <v>44196.999988368058</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
@@ -2245,23 +2306,23 @@
       <c r="E47" t="b">
         <v>1</v>
       </c>
-      <c r="J47" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="L47" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M47" t="s">
         <v>2</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N47" t="s">
         <v>23</v>
       </c>
-      <c r="M47" t="s">
+      <c r="O47" t="s">
         <v>26</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -2280,23 +2341,23 @@
       <c r="F48" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="K48" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L48" t="s">
+      <c r="N48" t="s">
         <v>47</v>
       </c>
-      <c r="M48" t="s">
+      <c r="O48" t="s">
         <v>27</v>
       </c>
-      <c r="N48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2312,17 +2373,17 @@
       <c r="F49" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="K49" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N49">
+      <c r="L49" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P49">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2341,17 +2402,19 @@
       <c r="H50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K50" t="s">
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="M50" t="s">
         <v>14</v>
       </c>
-      <c r="L50" t="s">
+      <c r="N50" t="s">
         <v>48</v>
       </c>
-      <c r="M50" t="s">
+      <c r="O50" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
         <v>43</v>
@@ -2371,11 +2434,13 @@
       <c r="H51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J51" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="L51" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -2391,20 +2456,20 @@
       <c r="F52" t="s">
         <v>7</v>
       </c>
-      <c r="K52" t="s">
+      <c r="M52" t="s">
         <v>2</v>
       </c>
-      <c r="L52" t="s">
+      <c r="N52" t="s">
         <v>23</v>
       </c>
-      <c r="M52" t="s">
+      <c r="O52" t="s">
         <v>26</v>
       </c>
-      <c r="N52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -2423,26 +2488,26 @@
       <c r="F53" t="s">
         <v>7</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="K53" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L53" t="s">
+      <c r="N53" t="s">
         <v>49</v>
       </c>
-      <c r="M53" t="s">
+      <c r="O53" t="s">
         <v>27</v>
       </c>
-      <c r="N53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2461,14 +2526,14 @@
       <c r="G54" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="K54" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N54">
+      <c r="P54">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2484,20 +2549,20 @@
       <c r="F55" t="s">
         <v>8</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="L55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M55" t="s">
         <v>14</v>
       </c>
-      <c r="L55" t="s">
+      <c r="N55" t="s">
         <v>50</v>
       </c>
-      <c r="M55" t="s">
+      <c r="O55" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2">
         <v>48</v>
@@ -2514,8 +2579,10 @@
       <c r="H56" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>17</v>
       </c>
@@ -2531,23 +2598,25 @@
       <c r="H57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J57" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="L57" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M57" t="s">
         <v>2</v>
       </c>
-      <c r="L57" t="s">
+      <c r="N57" t="s">
         <v>23</v>
       </c>
-      <c r="M57" t="s">
+      <c r="O57" t="s">
         <v>26</v>
       </c>
-      <c r="N57">
+      <c r="P57">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
@@ -2563,23 +2632,23 @@
       <c r="F58" t="s">
         <v>7</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="K58" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L58" t="s">
+      <c r="N58" t="s">
         <v>51</v>
       </c>
-      <c r="M58" t="s">
+      <c r="O58" t="s">
         <v>27</v>
       </c>
-      <c r="N58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2598,17 +2667,17 @@
       <c r="F59" t="s">
         <v>7</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="K59" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J59" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N59">
+      <c r="L59" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P59">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2627,17 +2696,17 @@
       <c r="G60" t="s">
         <v>7</v>
       </c>
-      <c r="K60" t="s">
+      <c r="M60" t="s">
         <v>14</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N60" t="s">
         <v>52</v>
       </c>
-      <c r="M60" t="s">
+      <c r="O60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2">
         <v>53</v>
@@ -2651,11 +2720,11 @@
       <c r="F61" t="s">
         <v>8</v>
       </c>
-      <c r="J61" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L61" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -2677,20 +2746,22 @@
       <c r="H62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K62" t="s">
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="M62" t="s">
         <v>2</v>
       </c>
-      <c r="L62" t="s">
+      <c r="N62" t="s">
         <v>23</v>
       </c>
-      <c r="M62" t="s">
+      <c r="O62" t="s">
         <v>26</v>
       </c>
-      <c r="N62">
+      <c r="P62">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>18</v>
       </c>
@@ -2712,26 +2783,28 @@
       <c r="H63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J63" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L63" t="s">
+      <c r="N63" t="s">
         <v>53</v>
       </c>
-      <c r="M63" t="s">
+      <c r="O63" t="s">
         <v>27</v>
       </c>
-      <c r="N63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -2744,14 +2817,14 @@
       <c r="G64" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="K64" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N64">
+      <c r="P64">
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -2770,20 +2843,20 @@
       <c r="F65" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K65" t="s">
+      <c r="L65" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M65" t="s">
         <v>14</v>
       </c>
-      <c r="L65" t="s">
+      <c r="N65" t="s">
         <v>54</v>
       </c>
-      <c r="M65" t="s">
+      <c r="O65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2">
         <v>58</v>
@@ -2798,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
@@ -2811,23 +2884,23 @@
       <c r="D67" s="3">
         <v>44196.999988368058</v>
       </c>
-      <c r="J67" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="L67" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M67" t="s">
         <v>2</v>
       </c>
-      <c r="L67" t="s">
+      <c r="N67" t="s">
         <v>23</v>
       </c>
-      <c r="M67" t="s">
+      <c r="O67" t="s">
         <v>26</v>
       </c>
-      <c r="N67">
+      <c r="P67">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
@@ -2849,23 +2922,25 @@
       <c r="H68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L68" t="s">
+      <c r="N68" t="s">
         <v>55</v>
       </c>
-      <c r="M68" t="s">
+      <c r="O68" t="s">
         <v>27</v>
       </c>
-      <c r="N68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -2887,17 +2962,19 @@
       <c r="H69" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J69" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N69">
+      <c r="L69" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P69">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -2913,17 +2990,17 @@
       <c r="G70" t="s">
         <v>7</v>
       </c>
-      <c r="K70" t="s">
+      <c r="M70" t="s">
         <v>14</v>
       </c>
-      <c r="L70" t="s">
+      <c r="N70" t="s">
         <v>56</v>
       </c>
-      <c r="M70" t="s">
+      <c r="O70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2">
         <v>63</v>
@@ -2937,11 +3014,11 @@
       <c r="F71" t="s">
         <v>8</v>
       </c>
-      <c r="J71" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L71" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>17</v>
       </c>
@@ -2960,20 +3037,20 @@
       <c r="F72" t="s">
         <v>7</v>
       </c>
-      <c r="K72" t="s">
+      <c r="M72" t="s">
         <v>2</v>
       </c>
-      <c r="L72" t="s">
+      <c r="N72" t="s">
         <v>23</v>
       </c>
-      <c r="M72" t="s">
+      <c r="O72" t="s">
         <v>26</v>
       </c>
-      <c r="N72">
+      <c r="P72">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>18</v>
       </c>
@@ -2989,26 +3066,26 @@
       <c r="F73" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="K73" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J73" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K73" s="1" t="s">
+      <c r="L73" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L73" t="s">
+      <c r="N73" t="s">
         <v>57</v>
       </c>
-      <c r="M73" t="s">
+      <c r="O73" t="s">
         <v>27</v>
       </c>
-      <c r="N73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -3030,14 +3107,16 @@
       <c r="H74" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N74">
+      <c r="P74">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -3059,20 +3138,22 @@
       <c r="H75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J75" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="L75" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M75" t="s">
         <v>14</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75" t="s">
         <v>58</v>
       </c>
-      <c r="M75" t="s">
+      <c r="O75" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2">
         <v>68</v>
@@ -3084,7 +3165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>17</v>
       </c>
@@ -3100,23 +3181,23 @@
       <c r="E77" t="b">
         <v>1</v>
       </c>
-      <c r="J77" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K77" t="s">
+      <c r="L77" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M77" t="s">
         <v>2</v>
       </c>
-      <c r="L77" t="s">
+      <c r="N77" t="s">
         <v>23</v>
       </c>
-      <c r="M77" t="s">
+      <c r="O77" t="s">
         <v>26</v>
       </c>
-      <c r="N77">
+      <c r="P77">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
@@ -3132,23 +3213,23 @@
       <c r="F78" t="s">
         <v>7</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="K78" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L78" t="s">
+      <c r="N78" t="s">
         <v>59</v>
       </c>
-      <c r="M78" t="s">
+      <c r="O78" t="s">
         <v>27</v>
       </c>
-      <c r="N78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -3164,17 +3245,17 @@
       <c r="F79" t="s">
         <v>7</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="K79" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J79" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N79">
+      <c r="L79" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P79">
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -3196,17 +3277,19 @@
       <c r="H80" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K80" t="s">
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="M80" t="s">
         <v>14</v>
       </c>
-      <c r="L80" t="s">
+      <c r="N80" t="s">
         <v>60</v>
       </c>
-      <c r="M80" t="s">
+      <c r="O80" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2">
         <v>73</v>
@@ -3226,11 +3309,13 @@
       <c r="H81" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="L81" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>17</v>
       </c>
@@ -3246,20 +3331,20 @@
       <c r="F82" t="s">
         <v>7</v>
       </c>
-      <c r="K82" t="s">
+      <c r="M82" t="s">
         <v>2</v>
       </c>
-      <c r="L82" t="s">
+      <c r="N82" t="s">
         <v>23</v>
       </c>
-      <c r="M82" t="s">
+      <c r="O82" t="s">
         <v>26</v>
       </c>
-      <c r="N82">
+      <c r="P82">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -3278,26 +3363,26 @@
       <c r="F83" t="s">
         <v>7</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="K83" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J83" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K83" s="1" t="s">
+      <c r="L83" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L83" t="s">
+      <c r="N83" t="s">
         <v>61</v>
       </c>
-      <c r="M83" t="s">
+      <c r="O83" t="s">
         <v>27</v>
       </c>
-      <c r="N83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -3316,14 +3401,14 @@
       <c r="G84" t="s">
         <v>7</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="K84" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N84">
+      <c r="P84">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -3336,20 +3421,20 @@
       <c r="F85" t="s">
         <v>8</v>
       </c>
-      <c r="J85" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="L85" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M85" t="s">
         <v>14</v>
       </c>
-      <c r="L85" t="s">
+      <c r="N85" t="s">
         <v>62</v>
       </c>
-      <c r="M85" t="s">
+      <c r="O85" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2">
         <v>78</v>
@@ -3366,8 +3451,10 @@
       <c r="H86" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>17</v>
       </c>
@@ -3386,23 +3473,25 @@
       <c r="H87" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J87" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K87" t="s">
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="L87" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M87" t="s">
         <v>2</v>
       </c>
-      <c r="L87" t="s">
+      <c r="N87" t="s">
         <v>23</v>
       </c>
-      <c r="M87" t="s">
+      <c r="O87" t="s">
         <v>26</v>
       </c>
-      <c r="N87">
+      <c r="P87">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>18</v>
       </c>
@@ -3418,23 +3507,23 @@
       <c r="F88" t="s">
         <v>7</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="K88" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" t="s">
         <v>63</v>
       </c>
-      <c r="M88" t="s">
+      <c r="O88" t="s">
         <v>27</v>
       </c>
-      <c r="N88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -3453,17 +3542,17 @@
       <c r="F89" t="s">
         <v>7</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="K89" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J89" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N89">
+      <c r="L89" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P89">
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -3482,17 +3571,17 @@
       <c r="G90" t="s">
         <v>7</v>
       </c>
-      <c r="K90" t="s">
+      <c r="M90" t="s">
         <v>14</v>
       </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>64</v>
       </c>
-      <c r="M90" t="s">
+      <c r="O90" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2">
         <v>83</v>
@@ -3506,11 +3595,11 @@
       <c r="F91" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L91" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>17</v>
       </c>
@@ -3529,20 +3618,22 @@
       <c r="H92" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K92" t="s">
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="M92" t="s">
         <v>2</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>23</v>
       </c>
-      <c r="M92" t="s">
+      <c r="O92" t="s">
         <v>26</v>
       </c>
-      <c r="N92">
+      <c r="P92">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
@@ -3564,26 +3655,28 @@
       <c r="H93" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J93" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K93" s="1" t="s">
+      <c r="L93" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L93" t="s">
+      <c r="N93" t="s">
         <v>65</v>
       </c>
-      <c r="M93" t="s">
+      <c r="O93" t="s">
         <v>27</v>
       </c>
-      <c r="N93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -3599,14 +3692,14 @@
       <c r="G94" t="s">
         <v>7</v>
       </c>
-      <c r="I94" s="5" t="s">
+      <c r="K94" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N94">
+      <c r="P94">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -3625,20 +3718,20 @@
       <c r="F95" t="s">
         <v>8</v>
       </c>
-      <c r="J95" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="L95" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M95" t="s">
         <v>14</v>
       </c>
-      <c r="L95" t="s">
+      <c r="N95" t="s">
         <v>66</v>
       </c>
-      <c r="M95" t="s">
+      <c r="O95" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2">
         <v>88</v>
@@ -3653,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>17</v>
       </c>
@@ -3666,23 +3759,23 @@
       <c r="D97" t="s">
         <v>3</v>
       </c>
-      <c r="J97" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K97" t="s">
+      <c r="L97" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M97" t="s">
         <v>2</v>
       </c>
-      <c r="L97" t="s">
+      <c r="N97" t="s">
         <v>23</v>
       </c>
-      <c r="M97" t="s">
+      <c r="O97" t="s">
         <v>26</v>
       </c>
-      <c r="N97">
+      <c r="P97">
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>18</v>
       </c>
@@ -3704,23 +3797,25 @@
       <c r="H98" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I98" s="5" t="s">
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L98" t="s">
+      <c r="N98" t="s">
         <v>67</v>
       </c>
-      <c r="M98" t="s">
+      <c r="O98" t="s">
         <v>27</v>
       </c>
-      <c r="N98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -3739,17 +3834,19 @@
       <c r="H99" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I99" s="5" t="s">
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J99" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N99">
+      <c r="L99" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P99">
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -3765,17 +3862,17 @@
       <c r="G100" t="s">
         <v>7</v>
       </c>
-      <c r="K100" t="s">
+      <c r="M100" t="s">
         <v>14</v>
       </c>
-      <c r="L100" t="s">
+      <c r="N100" t="s">
         <v>68</v>
       </c>
-      <c r="M100" t="s">
+      <c r="O100" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2">
         <v>93</v>
@@ -3792,11 +3889,11 @@
       <c r="F101" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L101" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>17</v>
       </c>
@@ -3815,20 +3912,20 @@
       <c r="F102" t="s">
         <v>7</v>
       </c>
-      <c r="K102" t="s">
+      <c r="M102" t="s">
         <v>2</v>
       </c>
-      <c r="L102" t="s">
+      <c r="N102" t="s">
         <v>23</v>
       </c>
-      <c r="M102" t="s">
+      <c r="O102" t="s">
         <v>26</v>
       </c>
-      <c r="N102">
+      <c r="P102">
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>18</v>
       </c>
@@ -3844,26 +3941,26 @@
       <c r="F103" t="s">
         <v>7</v>
       </c>
-      <c r="I103" s="5" t="s">
+      <c r="K103" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J103" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K103" s="1" t="s">
+      <c r="L103" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L103" t="s">
+      <c r="N103" t="s">
         <v>69</v>
       </c>
-      <c r="M103" t="s">
+      <c r="O103" t="s">
         <v>27</v>
       </c>
-      <c r="N103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -3885,14 +3982,16 @@
       <c r="H104" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I104" s="5" t="s">
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N104">
+      <c r="P104">
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -3914,20 +4013,22 @@
       <c r="H105" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J105" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K105" t="s">
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="L105" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M105" t="s">
         <v>14</v>
       </c>
-      <c r="L105" t="s">
+      <c r="N105" t="s">
         <v>70</v>
       </c>
-      <c r="M105" t="s">
+      <c r="O105" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2">
         <v>98</v>
@@ -3936,7 +4037,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
@@ -3952,23 +4053,23 @@
       <c r="E107" t="b">
         <v>1</v>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K107" t="s">
+      <c r="L107" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M107" t="s">
         <v>2</v>
       </c>
-      <c r="L107" t="s">
+      <c r="N107" t="s">
         <v>23</v>
       </c>
-      <c r="M107" t="s">
+      <c r="O107" t="s">
         <v>26</v>
       </c>
-      <c r="N107">
+      <c r="P107">
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>18</v>
       </c>
@@ -3987,23 +4088,23 @@
       <c r="F108" t="s">
         <v>7</v>
       </c>
-      <c r="I108" s="5" t="s">
+      <c r="K108" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K108" s="1" t="s">
+      <c r="M108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L108" t="s">
+      <c r="N108" t="s">
         <v>71</v>
       </c>
-      <c r="M108" t="s">
+      <c r="O108" t="s">
         <v>27</v>
       </c>
-      <c r="N108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -4019,17 +4120,17 @@
       <c r="F109" t="s">
         <v>7</v>
       </c>
-      <c r="I109" s="5" t="s">
+      <c r="K109" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J109" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N109">
+      <c r="L109" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P109">
         <v>144</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -4051,17 +4152,19 @@
       <c r="H110" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K110" t="s">
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="M110" t="s">
         <v>14</v>
       </c>
-      <c r="L110" t="s">
+      <c r="N110" t="s">
         <v>72</v>
       </c>
-      <c r="M110" t="s">
+      <c r="O110" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2">
         <v>103</v>
@@ -4081,11 +4184,13 @@
       <c r="H111" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J111" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="L111" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>17</v>
       </c>
@@ -4101,20 +4206,20 @@
       <c r="F112" t="s">
         <v>7</v>
       </c>
-      <c r="K112" t="s">
+      <c r="M112" t="s">
         <v>2</v>
       </c>
-      <c r="L112" t="s">
+      <c r="N112" t="s">
         <v>23</v>
       </c>
-      <c r="M112" t="s">
+      <c r="O112" t="s">
         <v>26</v>
       </c>
-      <c r="N112">
+      <c r="P112">
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>18</v>
       </c>
@@ -4130,26 +4235,26 @@
       <c r="F113" t="s">
         <v>7</v>
       </c>
-      <c r="I113" s="5" t="s">
+      <c r="K113" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J113" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K113" s="1" t="s">
+      <c r="L113" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L113" t="s">
+      <c r="N113" t="s">
         <v>73</v>
       </c>
-      <c r="M113" t="s">
+      <c r="O113" t="s">
         <v>27</v>
       </c>
-      <c r="N113" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -4168,14 +4273,14 @@
       <c r="G114" t="s">
         <v>7</v>
       </c>
-      <c r="I114" s="5" t="s">
+      <c r="K114" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N114">
+      <c r="P114">
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -4191,20 +4296,20 @@
       <c r="F115" t="s">
         <v>8</v>
       </c>
-      <c r="J115" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K115" t="s">
+      <c r="L115" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M115" t="s">
         <v>14</v>
       </c>
-      <c r="L115" t="s">
+      <c r="N115" t="s">
         <v>74</v>
       </c>
-      <c r="M115" t="s">
+      <c r="O115" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2">
         <v>108</v>
@@ -4221,8 +4326,10 @@
       <c r="H116" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>17</v>
       </c>
@@ -4241,23 +4348,25 @@
       <c r="H117" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J117" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K117" t="s">
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="L117" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M117" t="s">
         <v>2</v>
       </c>
-      <c r="L117" t="s">
+      <c r="N117" t="s">
         <v>23</v>
       </c>
-      <c r="M117" t="s">
+      <c r="O117" t="s">
         <v>26</v>
       </c>
-      <c r="N117">
+      <c r="P117">
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>18</v>
       </c>
@@ -4273,23 +4382,23 @@
       <c r="F118" t="s">
         <v>7</v>
       </c>
-      <c r="I118" s="5" t="s">
+      <c r="K118" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K118" s="1" t="s">
+      <c r="M118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L118" t="s">
+      <c r="N118" t="s">
         <v>75</v>
       </c>
-      <c r="M118" t="s">
+      <c r="O118" t="s">
         <v>27</v>
       </c>
-      <c r="N118" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -4308,17 +4417,17 @@
       <c r="F119" t="s">
         <v>7</v>
       </c>
-      <c r="I119" s="5" t="s">
+      <c r="K119" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J119" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N119">
+      <c r="L119" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P119">
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -4334,17 +4443,17 @@
       <c r="G120" t="s">
         <v>7</v>
       </c>
-      <c r="K120" t="s">
+      <c r="M120" t="s">
         <v>14</v>
       </c>
-      <c r="L120" t="s">
+      <c r="N120" t="s">
         <v>76</v>
       </c>
-      <c r="M120" t="s">
+      <c r="O120" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2">
         <v>113</v>
@@ -4358,11 +4467,11 @@
       <c r="F121" t="s">
         <v>8</v>
       </c>
-      <c r="J121" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L121" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>17</v>
       </c>
@@ -4384,20 +4493,22 @@
       <c r="H122" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K122" t="s">
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="M122" t="s">
         <v>2</v>
       </c>
-      <c r="L122" t="s">
+      <c r="N122" t="s">
         <v>23</v>
       </c>
-      <c r="M122" t="s">
+      <c r="O122" t="s">
         <v>26</v>
       </c>
-      <c r="N122">
+      <c r="P122">
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>18</v>
       </c>
@@ -4419,26 +4530,28 @@
       <c r="H123" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I123" s="5" t="s">
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J123" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K123" s="1" t="s">
+      <c r="L123" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L123" t="s">
+      <c r="N123" t="s">
         <v>77</v>
       </c>
-      <c r="M123" t="s">
+      <c r="O123" t="s">
         <v>27</v>
       </c>
-      <c r="N123" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -4454,14 +4567,14 @@
       <c r="G124" t="s">
         <v>7</v>
       </c>
-      <c r="I124" s="5" t="s">
+      <c r="K124" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N124">
+      <c r="P124">
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -4480,20 +4593,20 @@
       <c r="F125" t="s">
         <v>8</v>
       </c>
-      <c r="J125" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K125" t="s">
+      <c r="L125" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M125" t="s">
         <v>14</v>
       </c>
-      <c r="L125" t="s">
+      <c r="N125" t="s">
         <v>78</v>
       </c>
-      <c r="M125" t="s">
+      <c r="O125" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2">
         <v>118</v>
@@ -4508,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>17</v>
       </c>
@@ -4518,23 +4631,23 @@
       <c r="C127" s="2">
         <v>5.01</v>
       </c>
-      <c r="J127" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K127" t="s">
+      <c r="L127" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M127" t="s">
         <v>2</v>
       </c>
-      <c r="L127" t="s">
+      <c r="N127" t="s">
         <v>23</v>
       </c>
-      <c r="M127" t="s">
+      <c r="O127" t="s">
         <v>26</v>
       </c>
-      <c r="N127">
+      <c r="P127">
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>18</v>
       </c>
@@ -4556,23 +4669,25 @@
       <c r="H128" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I128" s="5" t="s">
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K128" s="1" t="s">
+      <c r="M128" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L128" t="s">
+      <c r="N128" t="s">
         <v>79</v>
       </c>
-      <c r="M128" t="s">
+      <c r="O128" t="s">
         <v>27</v>
       </c>
-      <c r="N128" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -4594,17 +4709,19 @@
       <c r="H129" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I129" s="5" t="s">
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J129" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N129">
+      <c r="L129" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P129">
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -4620,17 +4737,17 @@
       <c r="G130" t="s">
         <v>7</v>
       </c>
-      <c r="K130" t="s">
+      <c r="M130" t="s">
         <v>14</v>
       </c>
-      <c r="L130" t="s">
+      <c r="N130" t="s">
         <v>80</v>
       </c>
-      <c r="M130" t="s">
+      <c r="O130" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2">
         <v>123</v>
@@ -4647,11 +4764,11 @@
       <c r="F131" t="s">
         <v>8</v>
       </c>
-      <c r="J131" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L131" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>17</v>
       </c>
@@ -4670,20 +4787,20 @@
       <c r="F132" t="s">
         <v>7</v>
       </c>
-      <c r="K132" t="s">
+      <c r="M132" t="s">
         <v>2</v>
       </c>
-      <c r="L132" t="s">
+      <c r="N132" t="s">
         <v>23</v>
       </c>
-      <c r="M132" t="s">
+      <c r="O132" t="s">
         <v>26</v>
       </c>
-      <c r="N132">
+      <c r="P132">
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>18</v>
       </c>
@@ -4699,26 +4816,26 @@
       <c r="F133" t="s">
         <v>7</v>
       </c>
-      <c r="I133" s="5" t="s">
+      <c r="K133" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J133" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K133" s="1" t="s">
+      <c r="L133" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M133" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L133" t="s">
+      <c r="N133" t="s">
         <v>81</v>
       </c>
-      <c r="M133" t="s">
+      <c r="O133" t="s">
         <v>27</v>
       </c>
-      <c r="N133" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -4737,14 +4854,16 @@
       <c r="H134" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I134" s="5" t="s">
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N134">
+      <c r="P134">
         <v>149</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -4766,20 +4885,22 @@
       <c r="H135" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J135" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K135" t="s">
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="L135" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M135" t="s">
         <v>14</v>
       </c>
-      <c r="L135" t="s">
+      <c r="N135" t="s">
         <v>82</v>
       </c>
-      <c r="M135" t="s">
+      <c r="O135" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2">
         <v>128</v>
@@ -4791,7 +4912,7 @@
         <v>44196.999988368058</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>17</v>
       </c>
@@ -4807,23 +4928,23 @@
       <c r="E137" t="b">
         <v>1</v>
       </c>
-      <c r="J137" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K137" t="s">
+      <c r="L137" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M137" t="s">
         <v>2</v>
       </c>
-      <c r="L137" t="s">
+      <c r="N137" t="s">
         <v>23</v>
       </c>
-      <c r="M137" t="s">
+      <c r="O137" t="s">
         <v>26</v>
       </c>
-      <c r="N137">
+      <c r="P137">
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>18</v>
       </c>
@@ -4842,23 +4963,23 @@
       <c r="F138" t="s">
         <v>7</v>
       </c>
-      <c r="I138" s="5" t="s">
+      <c r="K138" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K138" s="1" t="s">
+      <c r="M138" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L138" t="s">
+      <c r="N138" t="s">
         <v>83</v>
       </c>
-      <c r="M138" t="s">
+      <c r="O138" t="s">
         <v>27</v>
       </c>
-      <c r="N138" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -4874,17 +4995,17 @@
       <c r="F139" t="s">
         <v>7</v>
       </c>
-      <c r="I139" s="5" t="s">
+      <c r="K139" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J139" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N139">
+      <c r="L139" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P139">
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -4906,17 +5027,19 @@
       <c r="H140" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K140" t="s">
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="M140" t="s">
         <v>14</v>
       </c>
-      <c r="L140" t="s">
+      <c r="N140" t="s">
         <v>84</v>
       </c>
-      <c r="M140" t="s">
+      <c r="O140" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2">
         <v>133</v>
@@ -4933,11 +5056,13 @@
       <c r="H141" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J141" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="L141" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>17</v>
       </c>
@@ -4953,20 +5078,20 @@
       <c r="F142" t="s">
         <v>7</v>
       </c>
-      <c r="K142" t="s">
+      <c r="M142" t="s">
         <v>2</v>
       </c>
-      <c r="L142" t="s">
+      <c r="N142" t="s">
         <v>23</v>
       </c>
-      <c r="M142" t="s">
+      <c r="O142" t="s">
         <v>26</v>
       </c>
-      <c r="N142">
+      <c r="P142">
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
@@ -4985,26 +5110,26 @@
       <c r="F143" t="s">
         <v>7</v>
       </c>
-      <c r="I143" s="5" t="s">
+      <c r="K143" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J143" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K143" s="1" t="s">
+      <c r="L143" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M143" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L143" t="s">
+      <c r="N143" t="s">
         <v>85</v>
       </c>
-      <c r="M143" t="s">
+      <c r="O143" t="s">
         <v>27</v>
       </c>
-      <c r="N143" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -5023,14 +5148,14 @@
       <c r="G144" t="s">
         <v>7</v>
       </c>
-      <c r="I144" s="5" t="s">
+      <c r="K144" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N144">
+      <c r="P144">
         <v>151</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -5046,20 +5171,20 @@
       <c r="F145" t="s">
         <v>8</v>
       </c>
-      <c r="J145" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K145" t="s">
+      <c r="L145" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M145" t="s">
         <v>14</v>
       </c>
-      <c r="L145" t="s">
+      <c r="N145" t="s">
         <v>86</v>
       </c>
-      <c r="M145" t="s">
+      <c r="O145" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2">
         <v>138</v>
@@ -5076,8 +5201,10 @@
       <c r="H146" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>17</v>
       </c>
@@ -5096,23 +5223,25 @@
       <c r="H147" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J147" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K147" t="s">
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="L147" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M147" t="s">
         <v>2</v>
       </c>
-      <c r="L147" t="s">
+      <c r="N147" t="s">
         <v>23</v>
       </c>
-      <c r="M147" t="s">
+      <c r="O147" t="s">
         <v>26</v>
       </c>
-      <c r="N147">
+      <c r="P147">
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>18</v>
       </c>
@@ -5125,23 +5254,23 @@
       <c r="F148" t="s">
         <v>7</v>
       </c>
-      <c r="I148" s="5" t="s">
+      <c r="K148" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K148" s="1" t="s">
+      <c r="M148" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L148" t="s">
+      <c r="N148" t="s">
         <v>87</v>
       </c>
-      <c r="M148" t="s">
+      <c r="O148" t="s">
         <v>27</v>
       </c>
-      <c r="N148" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -5160,17 +5289,17 @@
       <c r="F149" t="s">
         <v>7</v>
       </c>
-      <c r="I149" s="5" t="s">
+      <c r="K149" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J149" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N149">
+      <c r="L149" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P149">
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -5189,17 +5318,17 @@
       <c r="G150" t="s">
         <v>7</v>
       </c>
-      <c r="K150" t="s">
+      <c r="M150" t="s">
         <v>14</v>
       </c>
-      <c r="L150" t="s">
+      <c r="N150" t="s">
         <v>88</v>
       </c>
-      <c r="M150" t="s">
+      <c r="O150" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2">
         <v>143</v>
@@ -5213,11 +5342,11 @@
       <c r="F151" t="s">
         <v>8</v>
       </c>
-      <c r="J151" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L151" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>17</v>
       </c>
@@ -5239,20 +5368,22 @@
       <c r="H152" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K152" t="s">
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="M152" t="s">
         <v>2</v>
       </c>
-      <c r="L152" t="s">
+      <c r="N152" t="s">
         <v>23</v>
       </c>
-      <c r="M152" t="s">
+      <c r="O152" t="s">
         <v>26</v>
       </c>
-      <c r="N152">
+      <c r="P152">
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>18</v>
       </c>
@@ -5274,26 +5405,28 @@
       <c r="H153" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I153" s="5" t="s">
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J153" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K153" s="1" t="s">
+      <c r="L153" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M153" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L153" t="s">
+      <c r="N153" t="s">
         <v>89</v>
       </c>
-      <c r="M153" t="s">
+      <c r="O153" t="s">
         <v>27</v>
       </c>
-      <c r="N153" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -5309,14 +5442,14 @@
       <c r="G154" t="s">
         <v>7</v>
       </c>
-      <c r="I154" s="5" t="s">
+      <c r="K154" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N154">
+      <c r="P154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -5332,20 +5465,20 @@
       <c r="F155" t="s">
         <v>8</v>
       </c>
-      <c r="J155" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K155" t="s">
+      <c r="L155" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M155" t="s">
         <v>14</v>
       </c>
-      <c r="L155" t="s">
+      <c r="N155" t="s">
         <v>90</v>
       </c>
-      <c r="M155" t="s">
+      <c r="O155" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2">
         <v>148</v>
@@ -5360,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>17</v>
       </c>
@@ -5373,23 +5506,23 @@
       <c r="D157" s="1">
         <v>44196.999988368058</v>
       </c>
-      <c r="J157" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K157" t="s">
+      <c r="L157" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M157" t="s">
         <v>2</v>
       </c>
-      <c r="L157" t="s">
+      <c r="N157" t="s">
         <v>23</v>
       </c>
-      <c r="M157" t="s">
+      <c r="O157" t="s">
         <v>26</v>
       </c>
-      <c r="N157">
+      <c r="P157">
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>18</v>
       </c>
@@ -5411,23 +5544,25 @@
       <c r="H158" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I158" s="5" t="s">
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K158" s="1" t="s">
+      <c r="M158" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L158" t="s">
+      <c r="N158" t="s">
         <v>91</v>
       </c>
-      <c r="M158" t="s">
+      <c r="O158" t="s">
         <v>27</v>
       </c>
-      <c r="N158" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -5449,17 +5584,19 @@
       <c r="H159" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I159" s="5" t="s">
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J159" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N159">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L159" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P159">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -5475,17 +5612,17 @@
       <c r="G160" t="s">
         <v>7</v>
       </c>
-      <c r="K160" t="s">
+      <c r="M160" t="s">
         <v>14</v>
       </c>
-      <c r="L160" t="s">
+      <c r="N160" t="s">
         <v>92</v>
       </c>
-      <c r="M160" t="s">
+      <c r="O160" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2">
         <v>153</v>
@@ -5502,11 +5639,11 @@
       <c r="F161" t="s">
         <v>8</v>
       </c>
-      <c r="J161" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L161" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>17</v>
       </c>
@@ -5522,20 +5659,20 @@
       <c r="F162" t="s">
         <v>7</v>
       </c>
-      <c r="K162" t="s">
+      <c r="M162" t="s">
         <v>2</v>
       </c>
-      <c r="L162" t="s">
+      <c r="N162" t="s">
         <v>23</v>
       </c>
-      <c r="M162" t="s">
+      <c r="O162" t="s">
         <v>26</v>
       </c>
-      <c r="N162">
+      <c r="P162">
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>18</v>
       </c>
@@ -5551,26 +5688,26 @@
       <c r="F163" t="s">
         <v>7</v>
       </c>
-      <c r="I163" s="5" t="s">
+      <c r="K163" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J163" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K163" s="1" t="s">
+      <c r="L163" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M163" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L163" t="s">
+      <c r="N163" t="s">
         <v>93</v>
       </c>
-      <c r="M163" t="s">
+      <c r="O163" t="s">
         <v>27</v>
       </c>
-      <c r="N163" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -5592,14 +5729,16 @@
       <c r="H164" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I164" s="5" t="s">
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N164">
+      <c r="P164">
         <v>155</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -5621,20 +5760,22 @@
       <c r="H165" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J165" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K165" t="s">
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="L165" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M165" t="s">
         <v>14</v>
       </c>
-      <c r="L165" t="s">
+      <c r="N165" t="s">
         <v>94</v>
       </c>
-      <c r="M165" t="s">
+      <c r="O165" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2">
         <v>158</v>
@@ -5646,7 +5787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>17</v>
       </c>
@@ -5662,23 +5803,23 @@
       <c r="E167" t="b">
         <v>1</v>
       </c>
-      <c r="J167" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K167" t="s">
+      <c r="L167" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M167" t="s">
         <v>2</v>
       </c>
-      <c r="L167" t="s">
+      <c r="N167" t="s">
         <v>23</v>
       </c>
-      <c r="M167" t="s">
+      <c r="O167" t="s">
         <v>26</v>
       </c>
-      <c r="N167">
+      <c r="P167">
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>18</v>
       </c>
@@ -5697,23 +5838,23 @@
       <c r="F168" t="s">
         <v>7</v>
       </c>
-      <c r="I168" s="5" t="s">
+      <c r="K168" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K168" s="1" t="s">
+      <c r="M168" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L168" t="s">
+      <c r="N168" t="s">
         <v>95</v>
       </c>
-      <c r="M168" t="s">
+      <c r="O168" t="s">
         <v>27</v>
       </c>
-      <c r="N168" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -5726,17 +5867,17 @@
       <c r="F169" t="s">
         <v>7</v>
       </c>
-      <c r="I169" s="5" t="s">
+      <c r="K169" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J169" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N169">
+      <c r="L169" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P169">
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -5758,17 +5899,19 @@
       <c r="H170" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K170" t="s">
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="M170" t="s">
         <v>14</v>
       </c>
-      <c r="L170" t="s">
+      <c r="N170" t="s">
         <v>96</v>
       </c>
-      <c r="M170" t="s">
+      <c r="O170" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2">
         <v>163</v>
@@ -5788,11 +5931,13 @@
       <c r="H171" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J171" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="L171" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>17</v>
       </c>
@@ -5808,20 +5953,20 @@
       <c r="F172" t="s">
         <v>7</v>
       </c>
-      <c r="K172" t="s">
+      <c r="M172" t="s">
         <v>2</v>
       </c>
-      <c r="L172" t="s">
+      <c r="N172" t="s">
         <v>23</v>
       </c>
-      <c r="M172" t="s">
+      <c r="O172" t="s">
         <v>26</v>
       </c>
-      <c r="N172">
+      <c r="P172">
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>18</v>
       </c>
@@ -5840,26 +5985,26 @@
       <c r="F173" t="s">
         <v>7</v>
       </c>
-      <c r="I173" s="5" t="s">
+      <c r="K173" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J173" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K173" s="1" t="s">
+      <c r="L173" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M173" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L173" t="s">
+      <c r="N173" t="s">
         <v>97</v>
       </c>
-      <c r="M173" t="s">
+      <c r="O173" t="s">
         <v>27</v>
       </c>
-      <c r="N173" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -5878,14 +6023,14 @@
       <c r="G174" t="s">
         <v>7</v>
       </c>
-      <c r="I174" s="5" t="s">
+      <c r="K174" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N174">
+      <c r="P174">
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -5901,20 +6046,20 @@
       <c r="F175" t="s">
         <v>8</v>
       </c>
-      <c r="J175" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K175" t="s">
+      <c r="L175" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M175" t="s">
         <v>14</v>
       </c>
-      <c r="L175" t="s">
+      <c r="N175" t="s">
         <v>98</v>
       </c>
-      <c r="M175" t="s">
+      <c r="O175" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2">
         <v>168</v>
@@ -5928,8 +6073,10 @@
       <c r="H176" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>17</v>
       </c>
@@ -5948,23 +6095,25 @@
       <c r="H177" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J177" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K177" t="s">
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="L177" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M177" t="s">
         <v>2</v>
       </c>
-      <c r="L177" t="s">
+      <c r="N177" t="s">
         <v>23</v>
       </c>
-      <c r="M177" t="s">
+      <c r="O177" t="s">
         <v>26</v>
       </c>
-      <c r="N177">
+      <c r="P177">
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>18</v>
       </c>
@@ -5980,23 +6129,23 @@
       <c r="F178" t="s">
         <v>7</v>
       </c>
-      <c r="I178" s="5" t="s">
+      <c r="K178" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K178" s="1" t="s">
+      <c r="M178" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L178" t="s">
+      <c r="N178" t="s">
         <v>99</v>
       </c>
-      <c r="M178" t="s">
+      <c r="O178" t="s">
         <v>27</v>
       </c>
-      <c r="N178" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -6015,17 +6164,17 @@
       <c r="F179" t="s">
         <v>7</v>
       </c>
-      <c r="I179" s="5" t="s">
+      <c r="K179" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J179" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N179">
+      <c r="L179" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P179">
         <v>158</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -6044,17 +6193,17 @@
       <c r="G180" t="s">
         <v>7</v>
       </c>
-      <c r="K180" t="s">
+      <c r="M180" t="s">
         <v>14</v>
       </c>
-      <c r="L180" t="s">
+      <c r="N180" t="s">
         <v>100</v>
       </c>
-      <c r="M180" t="s">
+      <c r="O180" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2">
         <v>173</v>
@@ -6068,11 +6217,11 @@
       <c r="F181" t="s">
         <v>8</v>
       </c>
-      <c r="J181" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L181" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>17</v>
       </c>
@@ -6094,20 +6243,22 @@
       <c r="H182" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K182" t="s">
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="M182" t="s">
         <v>2</v>
       </c>
-      <c r="L182" t="s">
+      <c r="N182" t="s">
         <v>23</v>
       </c>
-      <c r="M182" t="s">
+      <c r="O182" t="s">
         <v>26</v>
       </c>
-      <c r="N182">
+      <c r="P182">
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>18</v>
       </c>
@@ -6126,26 +6277,28 @@
       <c r="H183" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I183" s="5" t="s">
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J183" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K183" s="1" t="s">
+      <c r="L183" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M183" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L183" t="s">
+      <c r="N183" t="s">
         <v>101</v>
       </c>
-      <c r="M183" t="s">
+      <c r="O183" t="s">
         <v>27</v>
       </c>
-      <c r="N183" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -6161,14 +6314,14 @@
       <c r="G184" t="s">
         <v>7</v>
       </c>
-      <c r="I184" s="5" t="s">
+      <c r="K184" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N184">
+      <c r="P184">
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -6187,20 +6340,20 @@
       <c r="F185" t="s">
         <v>8</v>
       </c>
-      <c r="J185" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K185" t="s">
+      <c r="L185" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M185" t="s">
         <v>14</v>
       </c>
-      <c r="L185" t="s">
+      <c r="N185" t="s">
         <v>102</v>
       </c>
-      <c r="M185" t="s">
+      <c r="O185" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2">
         <v>178</v>
@@ -6215,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>17</v>
       </c>
@@ -6228,23 +6381,23 @@
       <c r="D187" t="s">
         <v>4</v>
       </c>
-      <c r="J187" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K187" t="s">
+      <c r="L187" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M187" t="s">
         <v>2</v>
       </c>
-      <c r="L187" t="s">
+      <c r="N187" t="s">
         <v>23</v>
       </c>
-      <c r="M187" t="s">
+      <c r="O187" t="s">
         <v>26</v>
       </c>
-      <c r="N187">
+      <c r="P187">
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>18</v>
       </c>
@@ -6266,23 +6419,25 @@
       <c r="H188" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I188" s="5" t="s">
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K188" s="1" t="s">
+      <c r="M188" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L188" t="s">
+      <c r="N188" t="s">
         <v>103</v>
       </c>
-      <c r="M188" t="s">
+      <c r="O188" t="s">
         <v>27</v>
       </c>
-      <c r="N188" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -6304,17 +6459,19 @@
       <c r="H189" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I189" s="5" t="s">
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J189" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N189">
+      <c r="L189" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P189">
         <v>160</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -6327,17 +6484,17 @@
       <c r="G190" t="s">
         <v>7</v>
       </c>
-      <c r="K190" t="s">
+      <c r="M190" t="s">
         <v>14</v>
       </c>
-      <c r="L190" t="s">
+      <c r="N190" t="s">
         <v>104</v>
       </c>
-      <c r="M190" t="s">
+      <c r="O190" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2">
         <v>183</v>
@@ -6354,11 +6511,11 @@
       <c r="F191" t="s">
         <v>8</v>
       </c>
-      <c r="J191" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L191" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>17</v>
       </c>
@@ -6377,20 +6534,20 @@
       <c r="F192" t="s">
         <v>7</v>
       </c>
-      <c r="K192" t="s">
+      <c r="M192" t="s">
         <v>2</v>
       </c>
-      <c r="L192" t="s">
+      <c r="N192" t="s">
         <v>23</v>
       </c>
-      <c r="M192" t="s">
+      <c r="O192" t="s">
         <v>26</v>
       </c>
-      <c r="N192">
+      <c r="P192">
         <v>38</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>18</v>
       </c>
@@ -6406,26 +6563,26 @@
       <c r="F193" t="s">
         <v>7</v>
       </c>
-      <c r="I193" s="5" t="s">
+      <c r="K193" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J193" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K193" s="1" t="s">
+      <c r="L193" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M193" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L193" t="s">
+      <c r="N193" t="s">
         <v>105</v>
       </c>
-      <c r="M193" t="s">
+      <c r="O193" t="s">
         <v>27</v>
       </c>
-      <c r="N193" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -6447,14 +6604,16 @@
       <c r="H194" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I194" s="5" t="s">
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N194">
+      <c r="P194">
         <v>161</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>20</v>
       </c>
@@ -6476,20 +6635,22 @@
       <c r="H195" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J195" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K195" t="s">
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="L195" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M195" t="s">
         <v>14</v>
       </c>
-      <c r="L195" t="s">
+      <c r="N195" t="s">
         <v>106</v>
       </c>
-      <c r="M195" t="s">
+      <c r="O195" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2">
         <v>188</v>
@@ -6501,7 +6662,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>17</v>
       </c>
@@ -6514,23 +6675,23 @@
       <c r="E197" t="b">
         <v>1</v>
       </c>
-      <c r="J197" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K197" t="s">
+      <c r="L197" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M197" t="s">
         <v>2</v>
       </c>
-      <c r="L197" t="s">
+      <c r="N197" t="s">
         <v>23</v>
       </c>
-      <c r="M197" t="s">
+      <c r="O197" t="s">
         <v>26</v>
       </c>
-      <c r="N197">
+      <c r="P197">
         <v>39</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>18</v>
       </c>
@@ -6549,23 +6710,23 @@
       <c r="F198" t="s">
         <v>7</v>
       </c>
-      <c r="I198" s="5" t="s">
+      <c r="K198" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K198" s="1" t="s">
+      <c r="M198" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L198" t="s">
+      <c r="N198" t="s">
         <v>107</v>
       </c>
-      <c r="M198" t="s">
+      <c r="O198" t="s">
         <v>27</v>
       </c>
-      <c r="N198" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -6581,17 +6742,17 @@
       <c r="F199" t="s">
         <v>7</v>
       </c>
-      <c r="I199" s="5" t="s">
+      <c r="K199" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J199" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N199">
+      <c r="L199" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P199">
         <v>162</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -6613,17 +6774,19 @@
       <c r="H200" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K200" t="s">
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="M200" t="s">
         <v>14</v>
       </c>
-      <c r="L200" t="s">
+      <c r="N200" t="s">
         <v>108</v>
       </c>
-      <c r="M200" t="s">
+      <c r="O200" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2">
         <v>193</v>
@@ -6643,11 +6806,13 @@
       <c r="H201" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J201" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="L201" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>17</v>
       </c>
@@ -6663,20 +6828,20 @@
       <c r="F202" t="s">
         <v>7</v>
       </c>
-      <c r="K202" t="s">
+      <c r="M202" t="s">
         <v>2</v>
       </c>
-      <c r="L202" t="s">
+      <c r="N202" t="s">
         <v>23</v>
       </c>
-      <c r="M202" t="s">
+      <c r="O202" t="s">
         <v>26</v>
       </c>
-      <c r="N202">
+      <c r="P202">
         <v>40</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>18</v>
       </c>
@@ -6695,26 +6860,26 @@
       <c r="F203" t="s">
         <v>7</v>
       </c>
-      <c r="I203" s="5" t="s">
+      <c r="K203" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J203" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K203" s="1" t="s">
+      <c r="L203" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M203" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L203" t="s">
+      <c r="N203" t="s">
         <v>109</v>
       </c>
-      <c r="M203" t="s">
+      <c r="O203" t="s">
         <v>27</v>
       </c>
-      <c r="N203" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -6730,14 +6895,14 @@
       <c r="G204" t="s">
         <v>7</v>
       </c>
-      <c r="I204" s="5" t="s">
+      <c r="K204" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N204">
+      <c r="P204">
         <v>163</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -6753,20 +6918,20 @@
       <c r="F205" t="s">
         <v>8</v>
       </c>
-      <c r="J205" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K205" t="s">
+      <c r="L205" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M205" t="s">
         <v>14</v>
       </c>
-      <c r="L205" t="s">
+      <c r="N205" t="s">
         <v>110</v>
       </c>
-      <c r="M205" t="s">
+      <c r="O205" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2">
         <v>198</v>
@@ -6783,8 +6948,10 @@
       <c r="H206" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>17</v>
       </c>
@@ -6803,23 +6970,25 @@
       <c r="H207" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J207" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K207" t="s">
+      <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
+      <c r="L207" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M207" t="s">
         <v>2</v>
       </c>
-      <c r="L207" t="s">
+      <c r="N207" t="s">
         <v>23</v>
       </c>
-      <c r="M207" t="s">
+      <c r="O207" t="s">
         <v>26</v>
       </c>
-      <c r="N207">
+      <c r="P207">
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>18</v>
       </c>
@@ -6835,23 +7004,23 @@
       <c r="F208" t="s">
         <v>7</v>
       </c>
-      <c r="I208" s="5" t="s">
+      <c r="K208" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K208" s="1" t="s">
+      <c r="M208" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L208" t="s">
+      <c r="N208" t="s">
         <v>111</v>
       </c>
-      <c r="M208" t="s">
+      <c r="O208" t="s">
         <v>27</v>
       </c>
-      <c r="N208" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>19</v>
       </c>
@@ -6870,17 +7039,17 @@
       <c r="F209" t="s">
         <v>7</v>
       </c>
-      <c r="I209" s="5" t="s">
+      <c r="K209" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J209" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N209">
+      <c r="L209" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P209">
         <v>164</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>20</v>
       </c>
@@ -6899,17 +7068,17 @@
       <c r="G210" t="s">
         <v>7</v>
       </c>
-      <c r="K210" t="s">
+      <c r="M210" t="s">
         <v>14</v>
       </c>
-      <c r="L210" t="s">
+      <c r="N210" t="s">
         <v>112</v>
       </c>
-      <c r="M210" t="s">
+      <c r="O210" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2">
         <v>203</v>
@@ -6920,11 +7089,11 @@
       <c r="F211" t="s">
         <v>8</v>
       </c>
-      <c r="J211" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L211" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>17</v>
       </c>
@@ -6946,20 +7115,22 @@
       <c r="H212" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K212" t="s">
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="M212" t="s">
         <v>2</v>
       </c>
-      <c r="L212" t="s">
+      <c r="N212" t="s">
         <v>23</v>
       </c>
-      <c r="M212" t="s">
+      <c r="O212" t="s">
         <v>26</v>
       </c>
-      <c r="N212">
+      <c r="P212">
         <v>42</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>18</v>
       </c>
@@ -6981,26 +7152,28 @@
       <c r="H213" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I213" s="5" t="s">
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J213" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K213" s="1" t="s">
+      <c r="L213" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M213" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L213" t="s">
+      <c r="N213" t="s">
         <v>113</v>
       </c>
-      <c r="M213" t="s">
+      <c r="O213" t="s">
         <v>27</v>
       </c>
-      <c r="N213" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -7016,14 +7189,14 @@
       <c r="G214" t="s">
         <v>7</v>
       </c>
-      <c r="I214" s="5" t="s">
+      <c r="K214" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N214">
+      <c r="P214">
         <v>165</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -7042,20 +7215,20 @@
       <c r="F215" t="s">
         <v>8</v>
       </c>
-      <c r="J215" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K215" t="s">
+      <c r="L215" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M215" t="s">
         <v>14</v>
       </c>
-      <c r="L215" t="s">
+      <c r="N215" t="s">
         <v>114</v>
       </c>
-      <c r="M215" t="s">
+      <c r="O215" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2">
         <v>208</v>
@@ -7070,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>17</v>
       </c>
@@ -7083,23 +7256,23 @@
       <c r="D217">
         <v>462</v>
       </c>
-      <c r="J217" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K217" t="s">
+      <c r="L217" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M217" t="s">
         <v>2</v>
       </c>
-      <c r="L217" t="s">
+      <c r="N217" t="s">
         <v>23</v>
       </c>
-      <c r="M217" t="s">
+      <c r="O217" t="s">
         <v>26</v>
       </c>
-      <c r="N217">
+      <c r="P217">
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>18</v>
       </c>
@@ -7118,23 +7291,25 @@
       <c r="H218" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I218" s="5" t="s">
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K218" s="1" t="s">
+      <c r="M218" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L218" t="s">
+      <c r="N218" t="s">
         <v>115</v>
       </c>
-      <c r="M218" t="s">
+      <c r="O218" t="s">
         <v>27</v>
       </c>
-      <c r="N218" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -7156,17 +7331,19 @@
       <c r="H219" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I219" s="5" t="s">
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J219" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N219">
+      <c r="L219" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P219">
         <v>166</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -7182,17 +7359,17 @@
       <c r="G220" t="s">
         <v>7</v>
       </c>
-      <c r="K220" t="s">
+      <c r="M220" t="s">
         <v>14</v>
       </c>
-      <c r="L220" t="s">
+      <c r="N220" t="s">
         <v>116</v>
       </c>
-      <c r="M220" t="s">
+      <c r="O220" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221" s="2">
         <v>213</v>
@@ -7209,11 +7386,11 @@
       <c r="F221" t="s">
         <v>8</v>
       </c>
-      <c r="J221" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L221" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>17</v>
       </c>
@@ -7232,20 +7409,20 @@
       <c r="F222" t="s">
         <v>7</v>
       </c>
-      <c r="K222" t="s">
+      <c r="M222" t="s">
         <v>2</v>
       </c>
-      <c r="L222" t="s">
+      <c r="N222" t="s">
         <v>23</v>
       </c>
-      <c r="M222" t="s">
+      <c r="O222" t="s">
         <v>26</v>
       </c>
-      <c r="N222">
+      <c r="P222">
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>18</v>
       </c>
@@ -7261,26 +7438,26 @@
       <c r="F223" t="s">
         <v>7</v>
       </c>
-      <c r="I223" s="5" t="s">
+      <c r="K223" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J223" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K223" s="1" t="s">
+      <c r="L223" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M223" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L223" t="s">
+      <c r="N223" t="s">
         <v>117</v>
       </c>
-      <c r="M223" t="s">
+      <c r="O223" t="s">
         <v>27</v>
       </c>
-      <c r="N223" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -7302,14 +7479,16 @@
       <c r="H224" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I224" s="5" t="s">
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N224">
+      <c r="P224">
         <v>167</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -7328,20 +7507,22 @@
       <c r="H225" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J225" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K225" t="s">
+      <c r="I225" s="4"/>
+      <c r="J225" s="4"/>
+      <c r="L225" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M225" t="s">
         <v>14</v>
       </c>
-      <c r="L225" t="s">
+      <c r="N225" t="s">
         <v>118</v>
       </c>
-      <c r="M225" t="s">
+      <c r="O225" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
       <c r="B226" s="2">
         <v>218</v>
@@ -7353,7 +7534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>17</v>
       </c>
@@ -7369,23 +7550,23 @@
       <c r="E227" t="b">
         <v>1</v>
       </c>
-      <c r="J227" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K227" t="s">
+      <c r="L227" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M227" t="s">
         <v>2</v>
       </c>
-      <c r="L227" t="s">
+      <c r="N227" t="s">
         <v>23</v>
       </c>
-      <c r="M227" t="s">
+      <c r="O227" t="s">
         <v>26</v>
       </c>
-      <c r="N227">
+      <c r="P227">
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>18</v>
       </c>
@@ -7404,23 +7585,23 @@
       <c r="F228" t="s">
         <v>7</v>
       </c>
-      <c r="I228" s="5" t="s">
+      <c r="K228" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K228" s="1" t="s">
+      <c r="M228" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L228" t="s">
+      <c r="N228" t="s">
         <v>119</v>
       </c>
-      <c r="M228" t="s">
+      <c r="O228" t="s">
         <v>27</v>
       </c>
-      <c r="N228" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -7436,17 +7617,17 @@
       <c r="F229" t="s">
         <v>7</v>
       </c>
-      <c r="I229" s="5" t="s">
+      <c r="K229" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J229" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N229">
+      <c r="L229" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P229">
         <v>168</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>20</v>
       </c>
@@ -7468,17 +7649,19 @@
       <c r="H230" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K230" t="s">
+      <c r="I230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="M230" t="s">
         <v>14</v>
       </c>
-      <c r="L230" t="s">
+      <c r="N230" t="s">
         <v>120</v>
       </c>
-      <c r="M230" t="s">
+      <c r="O230" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
       <c r="B231" s="2">
         <v>223</v>
@@ -7498,11 +7681,13 @@
       <c r="H231" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J231" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I231" s="4"/>
+      <c r="J231" s="4"/>
+      <c r="L231" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>17</v>
       </c>
@@ -7515,20 +7700,20 @@
       <c r="F232" t="s">
         <v>7</v>
       </c>
-      <c r="K232" t="s">
+      <c r="M232" t="s">
         <v>2</v>
       </c>
-      <c r="L232" t="s">
+      <c r="N232" t="s">
         <v>23</v>
       </c>
-      <c r="M232" t="s">
+      <c r="O232" t="s">
         <v>26</v>
       </c>
-      <c r="N232">
+      <c r="P232">
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>18</v>
       </c>
@@ -7547,26 +7732,26 @@
       <c r="F233" t="s">
         <v>7</v>
       </c>
-      <c r="I233" s="5" t="s">
+      <c r="K233" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J233" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K233" s="1" t="s">
+      <c r="L233" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M233" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L233" t="s">
+      <c r="N233" t="s">
         <v>121</v>
       </c>
-      <c r="M233" t="s">
+      <c r="O233" t="s">
         <v>27</v>
       </c>
-      <c r="N233" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -7585,14 +7770,14 @@
       <c r="G234" t="s">
         <v>7</v>
       </c>
-      <c r="I234" s="5" t="s">
+      <c r="K234" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N234">
+      <c r="P234">
         <v>169</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>20</v>
       </c>
@@ -7608,20 +7793,20 @@
       <c r="F235" t="s">
         <v>8</v>
       </c>
-      <c r="J235" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K235" t="s">
+      <c r="L235" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M235" t="s">
         <v>14</v>
       </c>
-      <c r="L235" t="s">
+      <c r="N235" t="s">
         <v>122</v>
       </c>
-      <c r="M235" t="s">
+      <c r="O235" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" s="2"/>
       <c r="B236" s="2">
         <v>228</v>
@@ -7638,8 +7823,10 @@
       <c r="H236" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I236" s="4"/>
+      <c r="J236" s="4"/>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>17</v>
       </c>
@@ -7658,23 +7845,25 @@
       <c r="H237" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J237" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K237" t="s">
+      <c r="I237" s="4"/>
+      <c r="J237" s="4"/>
+      <c r="L237" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M237" t="s">
         <v>2</v>
       </c>
-      <c r="L237" t="s">
+      <c r="N237" t="s">
         <v>23</v>
       </c>
-      <c r="M237" t="s">
+      <c r="O237" t="s">
         <v>26</v>
       </c>
-      <c r="N237">
+      <c r="P237">
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>18</v>
       </c>
@@ -7690,23 +7879,23 @@
       <c r="F238" t="s">
         <v>7</v>
       </c>
-      <c r="I238" s="5" t="s">
+      <c r="K238" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K238" s="1" t="s">
+      <c r="M238" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L238" t="s">
+      <c r="N238" t="s">
         <v>123</v>
       </c>
-      <c r="M238" t="s">
+      <c r="O238" t="s">
         <v>27</v>
       </c>
-      <c r="N238" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -7722,17 +7911,17 @@
       <c r="F239" t="s">
         <v>7</v>
       </c>
-      <c r="I239" s="5" t="s">
+      <c r="K239" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J239" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N239">
+      <c r="L239" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P239">
         <v>170</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>20</v>
       </c>
@@ -7751,17 +7940,17 @@
       <c r="G240" t="s">
         <v>7</v>
       </c>
-      <c r="K240" t="s">
+      <c r="M240" t="s">
         <v>14</v>
       </c>
-      <c r="L240" t="s">
+      <c r="N240" t="s">
         <v>124</v>
       </c>
-      <c r="M240" t="s">
+      <c r="O240" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" s="2"/>
       <c r="B241" s="2">
         <v>233</v>
@@ -7775,11 +7964,11 @@
       <c r="F241" t="s">
         <v>8</v>
       </c>
-      <c r="J241" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L241" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>17</v>
       </c>
@@ -7801,20 +7990,22 @@
       <c r="H242" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K242" t="s">
+      <c r="I242" s="4"/>
+      <c r="J242" s="4"/>
+      <c r="M242" t="s">
         <v>2</v>
       </c>
-      <c r="L242" t="s">
+      <c r="N242" t="s">
         <v>23</v>
       </c>
-      <c r="M242" t="s">
+      <c r="O242" t="s">
         <v>26</v>
       </c>
-      <c r="N242">
+      <c r="P242">
         <v>48</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>18</v>
       </c>
@@ -7836,26 +8027,28 @@
       <c r="H243" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I243" s="5" t="s">
+      <c r="I243" s="4"/>
+      <c r="J243" s="4"/>
+      <c r="K243" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J243" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K243" s="1" t="s">
+      <c r="L243" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M243" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L243" t="s">
+      <c r="N243" t="s">
         <v>125</v>
       </c>
-      <c r="M243" t="s">
+      <c r="O243" t="s">
         <v>27</v>
       </c>
-      <c r="N243" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>19</v>
       </c>
@@ -7871,14 +8064,14 @@
       <c r="G244" t="s">
         <v>7</v>
       </c>
-      <c r="I244" s="5" t="s">
+      <c r="K244" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N244">
+      <c r="P244">
         <v>171</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -7897,20 +8090,20 @@
       <c r="F245" t="s">
         <v>8</v>
       </c>
-      <c r="J245" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K245" t="s">
+      <c r="L245" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M245" t="s">
         <v>14</v>
       </c>
-      <c r="L245" t="s">
+      <c r="N245" t="s">
         <v>126</v>
       </c>
-      <c r="M245" t="s">
+      <c r="O245" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" s="2"/>
       <c r="B246" s="2">
         <v>238</v>
@@ -7922,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>17</v>
       </c>
@@ -7935,23 +8128,23 @@
       <c r="D247">
         <v>36</v>
       </c>
-      <c r="J247" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K247" t="s">
+      <c r="L247" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M247" t="s">
         <v>2</v>
       </c>
-      <c r="L247" t="s">
+      <c r="N247" t="s">
         <v>23</v>
       </c>
-      <c r="M247" t="s">
+      <c r="O247" t="s">
         <v>26</v>
       </c>
-      <c r="N247">
+      <c r="P247">
         <v>49</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>18</v>
       </c>
@@ -7973,23 +8166,25 @@
       <c r="H248" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I248" s="5" t="s">
+      <c r="I248" s="4"/>
+      <c r="J248" s="4"/>
+      <c r="K248" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K248" s="1" t="s">
+      <c r="M248" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L248" t="s">
+      <c r="N248" t="s">
         <v>127</v>
       </c>
-      <c r="M248" t="s">
+      <c r="O248" t="s">
         <v>27</v>
       </c>
-      <c r="N248" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -8011,17 +8206,19 @@
       <c r="H249" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I249" s="5" t="s">
+      <c r="I249" s="4"/>
+      <c r="J249" s="4"/>
+      <c r="K249" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J249" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N249">
+      <c r="L249" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P249">
         <v>172</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>20</v>
       </c>
@@ -8037,17 +8234,17 @@
       <c r="G250" t="s">
         <v>7</v>
       </c>
-      <c r="K250" t="s">
+      <c r="M250" t="s">
         <v>14</v>
       </c>
-      <c r="L250" t="s">
+      <c r="N250" t="s">
         <v>128</v>
       </c>
-      <c r="M250" t="s">
+      <c r="O250" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" s="2"/>
       <c r="B251" s="2">
         <v>243</v>
@@ -8064,11 +8261,11 @@
       <c r="F251" t="s">
         <v>8</v>
       </c>
-      <c r="J251" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L251" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>17</v>
       </c>
@@ -8087,20 +8284,20 @@
       <c r="F252" t="s">
         <v>7</v>
       </c>
-      <c r="K252" t="s">
+      <c r="M252" t="s">
         <v>2</v>
       </c>
-      <c r="L252" t="s">
+      <c r="N252" t="s">
         <v>23</v>
       </c>
-      <c r="M252" t="s">
+      <c r="O252" t="s">
         <v>26</v>
       </c>
-      <c r="N252">
+      <c r="P252">
         <v>50</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>18</v>
       </c>
@@ -8113,26 +8310,26 @@
       <c r="F253" t="s">
         <v>7</v>
       </c>
-      <c r="I253" s="5" t="s">
+      <c r="K253" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J253" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K253" s="1" t="s">
+      <c r="L253" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M253" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L253" t="s">
+      <c r="N253" t="s">
         <v>129</v>
       </c>
-      <c r="M253" t="s">
+      <c r="O253" t="s">
         <v>27</v>
       </c>
-      <c r="N253" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -8154,14 +8351,16 @@
       <c r="H254" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I254" s="5" t="s">
+      <c r="I254" s="4"/>
+      <c r="J254" s="4"/>
+      <c r="K254" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N254">
+      <c r="P254">
         <v>173</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>20</v>
       </c>
@@ -8183,20 +8382,22 @@
       <c r="H255" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J255" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K255" t="s">
+      <c r="I255" s="4"/>
+      <c r="J255" s="4"/>
+      <c r="L255" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M255" t="s">
         <v>14</v>
       </c>
-      <c r="L255" t="s">
+      <c r="N255" t="s">
         <v>130</v>
       </c>
-      <c r="M255" t="s">
+      <c r="O255" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" s="2"/>
       <c r="B256" s="2">
         <v>248</v>
@@ -8208,7 +8409,7 @@
         <v>44196.999988368058</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>17</v>
       </c>
@@ -8224,23 +8425,23 @@
       <c r="E257" t="b">
         <v>1</v>
       </c>
-      <c r="J257" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K257" t="s">
+      <c r="L257" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M257" t="s">
         <v>2</v>
       </c>
-      <c r="L257" t="s">
+      <c r="N257" t="s">
         <v>23</v>
       </c>
-      <c r="M257" t="s">
+      <c r="O257" t="s">
         <v>26</v>
       </c>
-      <c r="N257">
+      <c r="P257">
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>18</v>
       </c>
@@ -8259,23 +8460,23 @@
       <c r="F258" t="s">
         <v>7</v>
       </c>
-      <c r="I258" s="5" t="s">
+      <c r="K258" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K258" s="1" t="s">
+      <c r="M258" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L258" t="s">
+      <c r="N258" t="s">
         <v>131</v>
       </c>
-      <c r="M258" t="s">
+      <c r="O258" t="s">
         <v>27</v>
       </c>
-      <c r="N258" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>19</v>
       </c>
@@ -8291,17 +8492,17 @@
       <c r="F259" t="s">
         <v>7</v>
       </c>
-      <c r="I259" s="5" t="s">
+      <c r="K259" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J259" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N259">
+      <c r="L259" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P259">
         <v>174</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -8320,17 +8521,19 @@
       <c r="H260" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K260" t="s">
+      <c r="I260" s="4"/>
+      <c r="J260" s="4"/>
+      <c r="M260" t="s">
         <v>14</v>
       </c>
-      <c r="L260" t="s">
+      <c r="N260" t="s">
         <v>132</v>
       </c>
-      <c r="M260" t="s">
+      <c r="O260" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" s="2"/>
       <c r="B261" s="2">
         <v>253</v>
@@ -8350,11 +8553,13 @@
       <c r="H261" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J261" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I261" s="4"/>
+      <c r="J261" s="4"/>
+      <c r="L261" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>17</v>
       </c>
@@ -8370,20 +8575,20 @@
       <c r="F262" t="s">
         <v>7</v>
       </c>
-      <c r="K262" t="s">
+      <c r="M262" t="s">
         <v>2</v>
       </c>
-      <c r="L262" t="s">
+      <c r="N262" t="s">
         <v>23</v>
       </c>
-      <c r="M262" t="s">
+      <c r="O262" t="s">
         <v>26</v>
       </c>
-      <c r="N262">
+      <c r="P262">
         <v>52</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>18</v>
       </c>
@@ -8402,26 +8607,26 @@
       <c r="F263" t="s">
         <v>7</v>
       </c>
-      <c r="I263" s="5" t="s">
+      <c r="K263" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J263" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K263" s="1" t="s">
+      <c r="L263" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M263" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L263" t="s">
+      <c r="N263" t="s">
         <v>133</v>
       </c>
-      <c r="M263" t="s">
+      <c r="O263" t="s">
         <v>27</v>
       </c>
-      <c r="N263" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -8440,14 +8645,14 @@
       <c r="G264" t="s">
         <v>7</v>
       </c>
-      <c r="I264" s="5" t="s">
+      <c r="K264" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N264">
+      <c r="P264">
         <v>175</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>20</v>
       </c>
@@ -8463,20 +8668,20 @@
       <c r="F265" t="s">
         <v>8</v>
       </c>
-      <c r="J265" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K265" t="s">
+      <c r="L265" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M265" t="s">
         <v>14</v>
       </c>
-      <c r="L265" t="s">
+      <c r="N265" t="s">
         <v>134</v>
       </c>
-      <c r="M265" t="s">
+      <c r="O265" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" s="2"/>
       <c r="B266" s="2">
         <v>258</v>
@@ -8493,8 +8698,10 @@
       <c r="H266" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I266" s="4"/>
+      <c r="J266" s="4"/>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>17</v>
       </c>
@@ -8510,23 +8717,25 @@
       <c r="H267" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J267" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K267" t="s">
+      <c r="I267" s="4"/>
+      <c r="J267" s="4"/>
+      <c r="L267" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M267" t="s">
         <v>2</v>
       </c>
-      <c r="L267" t="s">
+      <c r="N267" t="s">
         <v>23</v>
       </c>
-      <c r="M267" t="s">
+      <c r="O267" t="s">
         <v>26</v>
       </c>
-      <c r="N267">
+      <c r="P267">
         <v>53</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>18</v>
       </c>
@@ -8542,23 +8751,23 @@
       <c r="F268" t="s">
         <v>7</v>
       </c>
-      <c r="I268" s="5" t="s">
+      <c r="K268" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K268" s="1" t="s">
+      <c r="M268" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L268" t="s">
+      <c r="N268" t="s">
         <v>135</v>
       </c>
-      <c r="M268" t="s">
+      <c r="O268" t="s">
         <v>27</v>
       </c>
-      <c r="N268" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -8577,17 +8786,17 @@
       <c r="F269" t="s">
         <v>7</v>
       </c>
-      <c r="I269" s="5" t="s">
+      <c r="K269" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J269" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N269">
+      <c r="L269" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P269">
         <v>176</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>20</v>
       </c>
@@ -8606,17 +8815,17 @@
       <c r="G270" t="s">
         <v>7</v>
       </c>
-      <c r="K270" t="s">
+      <c r="M270" t="s">
         <v>14</v>
       </c>
-      <c r="L270" t="s">
+      <c r="N270" t="s">
         <v>136</v>
       </c>
-      <c r="M270" t="s">
+      <c r="O270" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" s="2"/>
       <c r="B271" s="2">
         <v>263</v>
@@ -8630,11 +8839,11 @@
       <c r="F271" t="s">
         <v>8</v>
       </c>
-      <c r="J271" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L271" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>17</v>
       </c>
@@ -8656,20 +8865,22 @@
       <c r="H272" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K272" t="s">
+      <c r="I272" s="4"/>
+      <c r="J272" s="4"/>
+      <c r="M272" t="s">
         <v>2</v>
       </c>
-      <c r="L272" t="s">
+      <c r="N272" t="s">
         <v>23</v>
       </c>
-      <c r="M272" t="s">
+      <c r="O272" t="s">
         <v>26</v>
       </c>
-      <c r="N272">
+      <c r="P272">
         <v>54</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>18</v>
       </c>
@@ -8691,26 +8902,28 @@
       <c r="H273" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I273" s="5" t="s">
+      <c r="I273" s="4"/>
+      <c r="J273" s="4"/>
+      <c r="K273" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J273" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K273" s="1" t="s">
+      <c r="L273" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M273" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L273" t="s">
+      <c r="N273" t="s">
         <v>137</v>
       </c>
-      <c r="M273" t="s">
+      <c r="O273" t="s">
         <v>27</v>
       </c>
-      <c r="N273" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -8723,14 +8936,14 @@
       <c r="G274" t="s">
         <v>7</v>
       </c>
-      <c r="I274" s="5" t="s">
+      <c r="K274" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N274">
+      <c r="P274">
         <v>177</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>20</v>
       </c>
@@ -8749,20 +8962,20 @@
       <c r="F275" t="s">
         <v>8</v>
       </c>
-      <c r="J275" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K275" t="s">
+      <c r="L275" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M275" t="s">
         <v>14</v>
       </c>
-      <c r="L275" t="s">
+      <c r="N275" t="s">
         <v>138</v>
       </c>
-      <c r="M275" t="s">
+      <c r="O275" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" s="2"/>
       <c r="B276" s="2">
         <v>268</v>
@@ -8777,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>17</v>
       </c>
@@ -8790,23 +9003,23 @@
       <c r="D277" s="3">
         <v>44196.999988368058</v>
       </c>
-      <c r="J277" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K277" t="s">
+      <c r="L277" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M277" t="s">
         <v>2</v>
       </c>
-      <c r="L277" t="s">
+      <c r="N277" t="s">
         <v>23</v>
       </c>
-      <c r="M277" t="s">
+      <c r="O277" t="s">
         <v>26</v>
       </c>
-      <c r="N277">
+      <c r="P277">
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>18</v>
       </c>
@@ -8828,23 +9041,25 @@
       <c r="H278" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I278" s="5" t="s">
+      <c r="I278" s="4"/>
+      <c r="J278" s="4"/>
+      <c r="K278" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K278" s="1" t="s">
+      <c r="M278" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L278" t="s">
+      <c r="N278" t="s">
         <v>139</v>
       </c>
-      <c r="M278" t="s">
+      <c r="O278" t="s">
         <v>27</v>
       </c>
-      <c r="N278" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>19</v>
       </c>
@@ -8866,17 +9081,19 @@
       <c r="H279" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I279" s="5" t="s">
+      <c r="I279" s="4"/>
+      <c r="J279" s="4"/>
+      <c r="K279" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J279" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N279">
+      <c r="L279" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P279">
         <v>178</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>20</v>
       </c>
@@ -8892,17 +9109,17 @@
       <c r="G280" t="s">
         <v>7</v>
       </c>
-      <c r="K280" t="s">
+      <c r="M280" t="s">
         <v>14</v>
       </c>
-      <c r="L280" t="s">
+      <c r="N280" t="s">
         <v>140</v>
       </c>
-      <c r="M280" t="s">
+      <c r="O280" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" s="2"/>
       <c r="B281" s="2">
         <v>273</v>
@@ -8916,126 +9133,126 @@
       <c r="F281" t="s">
         <v>8</v>
       </c>
-      <c r="J281" s="6" t="s">
+      <c r="L281" s="6" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="alexandros@gelbessis.gr" xr:uid="{DA957EC5-CC18-4640-A04D-6511F7A40713}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{B4D34315-CB23-406D-A054-0F5691B6DA86}"/>
-    <hyperlink ref="I9" r:id="rId3" display="alexandros@gelbessis.gr" xr:uid="{76AD73EC-38F0-43C3-B89A-3549A5961771}"/>
-    <hyperlink ref="I14" r:id="rId4" display="alexandros@gelbessis.gr" xr:uid="{627CC14E-8AD1-4260-8CA1-F9FD32C1CAC1}"/>
-    <hyperlink ref="I19" r:id="rId5" display="alexandros@gelbessis.gr" xr:uid="{466F2BCF-2939-4250-B03E-B8002ED6405C}"/>
-    <hyperlink ref="I24" r:id="rId6" display="alexandros@gelbessis.gr" xr:uid="{04E0E948-8F00-49BE-80A9-74FCCC71C308}"/>
-    <hyperlink ref="I29" r:id="rId7" display="alexandros@gelbessis.gr" xr:uid="{0781A250-8D19-4714-AEB1-9AB3D1601CA1}"/>
-    <hyperlink ref="I34" r:id="rId8" display="alexandros@gelbessis.gr" xr:uid="{B29D4AC2-CD38-4373-8878-18E2CB0907BF}"/>
-    <hyperlink ref="I39" r:id="rId9" display="alexandros@gelbessis.gr" xr:uid="{7DBCC6D1-E83B-4263-9BAC-C37C8E3AF86A}"/>
-    <hyperlink ref="I44" r:id="rId10" display="alexandros@gelbessis.gr" xr:uid="{7747B1D3-2496-401A-B426-45952E1BCE01}"/>
-    <hyperlink ref="I49" r:id="rId11" display="alexandros@gelbessis.gr" xr:uid="{43DDBF70-AFBB-459D-85F9-A130B6F94CA8}"/>
-    <hyperlink ref="I54" r:id="rId12" display="alexandros@gelbessis.gr" xr:uid="{A53541EB-193C-4A75-96C3-BDCFB0C15718}"/>
-    <hyperlink ref="I59" r:id="rId13" display="alexandros@gelbessis.gr" xr:uid="{6B24F51E-61CA-49FB-820E-EA5D32246BFA}"/>
-    <hyperlink ref="I64" r:id="rId14" display="alexandros@gelbessis.gr" xr:uid="{D4C8F7D9-FFF0-4F9F-A471-1EFFA4C349BD}"/>
-    <hyperlink ref="I69" r:id="rId15" display="alexandros@gelbessis.gr" xr:uid="{D86BF91C-DA68-40D6-A940-10A3354615C2}"/>
-    <hyperlink ref="I74" r:id="rId16" display="alexandros@gelbessis.gr" xr:uid="{9702209D-3C9C-4444-A75E-A44DAA8D66CE}"/>
-    <hyperlink ref="I79" r:id="rId17" display="alexandros@gelbessis.gr" xr:uid="{1A820731-20F3-4948-8C9D-CD8D691A73D7}"/>
-    <hyperlink ref="I84" r:id="rId18" display="alexandros@gelbessis.gr" xr:uid="{D7324E06-B5BB-49F4-83E0-B3E0B1546013}"/>
-    <hyperlink ref="I89" r:id="rId19" display="alexandros@gelbessis.gr" xr:uid="{8FE8499C-4DDA-4D0A-9BDC-3774E7BA63D5}"/>
-    <hyperlink ref="I94" r:id="rId20" display="alexandros@gelbessis.gr" xr:uid="{5DF2A1AF-2343-4259-9362-208F9409185D}"/>
-    <hyperlink ref="I99" r:id="rId21" display="alexandros@gelbessis.gr" xr:uid="{39DEC57E-6FAC-4345-93FC-238FF236B676}"/>
-    <hyperlink ref="I104" r:id="rId22" display="alexandros@gelbessis.gr" xr:uid="{23BADF1A-F4F7-414D-9C81-B163824363C5}"/>
-    <hyperlink ref="I109" r:id="rId23" display="alexandros@gelbessis.gr" xr:uid="{CBE676D6-50AC-4A92-921A-32BE402B33CC}"/>
-    <hyperlink ref="I114" r:id="rId24" display="alexandros@gelbessis.gr" xr:uid="{6989D838-4035-443B-B897-10F71283AB4E}"/>
-    <hyperlink ref="I119" r:id="rId25" display="alexandros@gelbessis.gr" xr:uid="{50B23BF6-A95E-4128-9709-90909DF5B183}"/>
-    <hyperlink ref="I124" r:id="rId26" display="alexandros@gelbessis.gr" xr:uid="{A9B0F288-3492-4E76-A459-1C3553858DC6}"/>
-    <hyperlink ref="I129" r:id="rId27" display="alexandros@gelbessis.gr" xr:uid="{4C7F20E9-3E22-4A53-A644-413657359C61}"/>
-    <hyperlink ref="I134" r:id="rId28" display="alexandros@gelbessis.gr" xr:uid="{882E512A-725C-451D-994B-800A63587299}"/>
-    <hyperlink ref="I139" r:id="rId29" display="alexandros@gelbessis.gr" xr:uid="{BE0000A5-6E4C-4B44-8121-7B653CF08847}"/>
-    <hyperlink ref="I144" r:id="rId30" display="alexandros@gelbessis.gr" xr:uid="{F064C1C2-A25D-4A23-B7C3-6AACBDB85F33}"/>
-    <hyperlink ref="I149" r:id="rId31" display="alexandros@gelbessis.gr" xr:uid="{BE873AB1-129C-4353-AE59-5955385CC9D1}"/>
-    <hyperlink ref="I154" r:id="rId32" display="alexandros@gelbessis.gr" xr:uid="{D99A7996-D62C-42B4-A393-7D39588D7A6D}"/>
-    <hyperlink ref="I159" r:id="rId33" display="alexandros@gelbessis.gr" xr:uid="{70C16914-175A-4D94-9AF0-4233DC79269D}"/>
-    <hyperlink ref="I164" r:id="rId34" display="alexandros@gelbessis.gr" xr:uid="{E6C5319A-82F7-47EF-9258-E3E86932F716}"/>
-    <hyperlink ref="I169" r:id="rId35" display="alexandros@gelbessis.gr" xr:uid="{449CD816-8BEB-4AC5-B08C-DF0E1CAFA6A0}"/>
-    <hyperlink ref="I174" r:id="rId36" display="alexandros@gelbessis.gr" xr:uid="{63D4ABAA-F74B-498A-8456-481DB52BD042}"/>
-    <hyperlink ref="I179" r:id="rId37" display="alexandros@gelbessis.gr" xr:uid="{2F3089E6-FC09-4AD5-A87B-501AEA09D056}"/>
-    <hyperlink ref="I184" r:id="rId38" display="alexandros@gelbessis.gr" xr:uid="{E46CB943-D61B-4CF4-B7BA-B9909B93DF06}"/>
-    <hyperlink ref="I189" r:id="rId39" display="alexandros@gelbessis.gr" xr:uid="{5D2C0015-B3BA-49D7-9E43-690FDE00BA88}"/>
-    <hyperlink ref="I194" r:id="rId40" display="alexandros@gelbessis.gr" xr:uid="{A6FA6FD9-8AC2-43AD-B31F-5F2DAA7D07AB}"/>
-    <hyperlink ref="I199" r:id="rId41" display="alexandros@gelbessis.gr" xr:uid="{4AFE46BF-ED70-4552-A8FB-F53EA2322715}"/>
-    <hyperlink ref="I204" r:id="rId42" display="alexandros@gelbessis.gr" xr:uid="{69563D32-4AF7-45DA-A1D6-6C04BED7C881}"/>
-    <hyperlink ref="I209" r:id="rId43" display="alexandros@gelbessis.gr" xr:uid="{2C126BB5-DCE9-4808-B2C5-6DFA1A894EE2}"/>
-    <hyperlink ref="I214" r:id="rId44" display="alexandros@gelbessis.gr" xr:uid="{456E11B7-B454-496A-908A-A755B3454243}"/>
-    <hyperlink ref="I219" r:id="rId45" display="alexandros@gelbessis.gr" xr:uid="{DA66069E-D7DA-4F50-B147-E3FEC9922E96}"/>
-    <hyperlink ref="I224" r:id="rId46" display="alexandros@gelbessis.gr" xr:uid="{103C41FC-FB39-4699-A227-775E4933F61A}"/>
-    <hyperlink ref="I229" r:id="rId47" display="alexandros@gelbessis.gr" xr:uid="{47A3294A-F12C-49AB-8011-1F0FD50F97FD}"/>
-    <hyperlink ref="I234" r:id="rId48" display="alexandros@gelbessis.gr" xr:uid="{E361E6A5-5086-4326-9044-17B4D3BB61BA}"/>
-    <hyperlink ref="I239" r:id="rId49" display="alexandros@gelbessis.gr" xr:uid="{497C2EB8-A9D3-4A5C-B97C-0461704ECC9F}"/>
-    <hyperlink ref="I244" r:id="rId50" display="alexandros@gelbessis.gr" xr:uid="{8FAE26DE-0CB7-4395-A81F-BD1A11A0EFEA}"/>
-    <hyperlink ref="I249" r:id="rId51" display="alexandros@gelbessis.gr" xr:uid="{FA33161A-7574-417B-B7D9-5A255F865D65}"/>
-    <hyperlink ref="I254" r:id="rId52" display="alexandros@gelbessis.gr" xr:uid="{3D5F3ACD-85CD-4DCF-AA88-3BB367612E73}"/>
-    <hyperlink ref="I259" r:id="rId53" display="alexandros@gelbessis.gr" xr:uid="{5604DF26-2FDF-430B-8061-626CD7C8E03A}"/>
-    <hyperlink ref="I264" r:id="rId54" display="alexandros@gelbessis.gr" xr:uid="{03193D31-9424-436A-B668-CC0C8DF461A6}"/>
-    <hyperlink ref="I269" r:id="rId55" display="alexandros@gelbessis.gr" xr:uid="{C2405333-6040-401E-AE96-863661AC5020}"/>
-    <hyperlink ref="I274" r:id="rId56" display="alexandros@gelbessis.gr" xr:uid="{EB27735C-C0CE-47A4-ACA6-FB60628CB27A}"/>
-    <hyperlink ref="I279" r:id="rId57" display="alexandros@gelbessis.gr" xr:uid="{9A9B39BA-ABC2-44F0-9E69-9D786BD6AD5F}"/>
-    <hyperlink ref="I8" r:id="rId58" xr:uid="{ECDEF6FA-7558-417C-9371-881F52719F8B}"/>
-    <hyperlink ref="I13" r:id="rId59" xr:uid="{5C035017-7B12-49EF-98D7-584BFDD28800}"/>
-    <hyperlink ref="I18" r:id="rId60" xr:uid="{FE033210-35E5-4EF7-B340-5654D79AD2A8}"/>
-    <hyperlink ref="I23" r:id="rId61" xr:uid="{4CBEBDEF-E2A2-4310-BD61-B3499795CCF7}"/>
-    <hyperlink ref="I28" r:id="rId62" xr:uid="{4244CD6C-6A48-4670-A427-8B2A714790EC}"/>
-    <hyperlink ref="I33" r:id="rId63" xr:uid="{BC4EB7A9-CC14-4116-9119-88319D35E44B}"/>
-    <hyperlink ref="I38" r:id="rId64" xr:uid="{8D5FF52D-8C88-4330-AAED-30F54845D417}"/>
-    <hyperlink ref="I43" r:id="rId65" xr:uid="{4E438D5E-A3BC-4F01-98D8-B56EEFCAEC48}"/>
-    <hyperlink ref="I48" r:id="rId66" xr:uid="{0DBF4D69-B35D-4A03-BEAA-CEACBECE4BC2}"/>
-    <hyperlink ref="I53" r:id="rId67" xr:uid="{E34F4F8D-A66D-4E33-BD9B-E11E54B07C53}"/>
-    <hyperlink ref="I58" r:id="rId68" xr:uid="{A402F8F7-E714-4851-AEF8-55D8E8720EA3}"/>
-    <hyperlink ref="I63" r:id="rId69" xr:uid="{77B37C23-EFB8-4861-A146-3EA21476B9B2}"/>
-    <hyperlink ref="I68" r:id="rId70" xr:uid="{54CDDE13-5362-4256-B774-4F4E1C4A8A37}"/>
-    <hyperlink ref="I73" r:id="rId71" xr:uid="{A8662097-8253-47B9-9AA8-6D89F8EA9C8B}"/>
-    <hyperlink ref="I78" r:id="rId72" xr:uid="{B409DA5F-95BF-4263-81D5-702763B79100}"/>
-    <hyperlink ref="I83" r:id="rId73" xr:uid="{1733E51C-5B8D-4B5C-B8B9-085F02B5EE01}"/>
-    <hyperlink ref="I88" r:id="rId74" xr:uid="{CA994BEB-A0D3-4BC6-A5BB-DCA1C593EDA3}"/>
-    <hyperlink ref="I93" r:id="rId75" xr:uid="{04780638-2823-4925-B7D4-8AB6096D2C78}"/>
-    <hyperlink ref="I98" r:id="rId76" xr:uid="{5F4E0289-9A30-4B62-8A07-D0131821DFC9}"/>
-    <hyperlink ref="I103" r:id="rId77" xr:uid="{56000748-4D00-47CE-A109-B5177297FB5B}"/>
-    <hyperlink ref="I108" r:id="rId78" xr:uid="{44BC776C-9149-4E8E-BF59-7CEEAC8F07BE}"/>
-    <hyperlink ref="I113" r:id="rId79" xr:uid="{32122447-38CD-40D2-B811-52E12148B44D}"/>
-    <hyperlink ref="I118" r:id="rId80" xr:uid="{0FF38D8B-8D97-4795-B602-2FF90B7B6158}"/>
-    <hyperlink ref="I123" r:id="rId81" xr:uid="{6AD787AC-3522-417A-B457-F3AD9A2D7824}"/>
-    <hyperlink ref="I128" r:id="rId82" xr:uid="{59C5DBD2-30B8-457E-B8E1-438F5E22D44E}"/>
-    <hyperlink ref="I133" r:id="rId83" xr:uid="{208A4C34-FD44-4F79-AB8C-0B89344908EC}"/>
-    <hyperlink ref="I138" r:id="rId84" xr:uid="{2D0571A8-E9F0-4DD2-95EA-9E8390C83179}"/>
-    <hyperlink ref="I143" r:id="rId85" xr:uid="{0FE5993E-8FE8-4183-8FAB-0845881B183F}"/>
-    <hyperlink ref="I148" r:id="rId86" xr:uid="{D28F81A7-C534-479B-8EC9-63C51D0CEFDD}"/>
-    <hyperlink ref="I153" r:id="rId87" xr:uid="{AC92BFB3-C7A5-4B41-834D-3D01BC1779BD}"/>
-    <hyperlink ref="I158" r:id="rId88" xr:uid="{F75DD536-1F29-472B-B259-0A4A2007C2B9}"/>
-    <hyperlink ref="I163" r:id="rId89" xr:uid="{4BFF11D6-8740-4B1A-A8D7-41578350F51B}"/>
-    <hyperlink ref="I168" r:id="rId90" xr:uid="{B81BB84B-489D-466C-A113-1DA42F9B278C}"/>
-    <hyperlink ref="I173" r:id="rId91" xr:uid="{DB6548EF-1298-4878-A050-B50288007F82}"/>
-    <hyperlink ref="I178" r:id="rId92" xr:uid="{9474971F-DA89-4C13-AFFA-C0188540CE94}"/>
-    <hyperlink ref="I183" r:id="rId93" xr:uid="{15CAA755-348B-448C-8D3D-7100AF0A7082}"/>
-    <hyperlink ref="I188" r:id="rId94" xr:uid="{4856057C-16AD-4777-9652-0D8D77EFA92B}"/>
-    <hyperlink ref="I193" r:id="rId95" xr:uid="{61861491-79B8-4ED4-A6B0-123BBBAEB0E4}"/>
-    <hyperlink ref="I198" r:id="rId96" xr:uid="{DBEAC655-FCF3-4187-87AA-93D47350A3BE}"/>
-    <hyperlink ref="I203" r:id="rId97" xr:uid="{8F473D45-A192-4597-85D7-B00DF6A7EAE3}"/>
-    <hyperlink ref="I208" r:id="rId98" xr:uid="{48B9D605-785C-4CDB-AC1B-19F58DE4F822}"/>
-    <hyperlink ref="I213" r:id="rId99" xr:uid="{2F281AF7-6019-42AE-9FB5-538A66213DCD}"/>
-    <hyperlink ref="I218" r:id="rId100" xr:uid="{4A477F05-F9F1-4C96-88BD-9EABEA0EC5B5}"/>
-    <hyperlink ref="I223" r:id="rId101" xr:uid="{C3F1E97E-6D07-4C1E-908D-816F7F916887}"/>
-    <hyperlink ref="I228" r:id="rId102" xr:uid="{721A7C1A-A692-4719-96A3-0F398B278AF9}"/>
-    <hyperlink ref="I233" r:id="rId103" xr:uid="{C60ED6DD-DFB6-4C06-AFE9-1A39DA56AC0E}"/>
-    <hyperlink ref="I238" r:id="rId104" xr:uid="{D14078BE-0649-4003-9C71-08C4B63972CD}"/>
-    <hyperlink ref="I243" r:id="rId105" xr:uid="{3CA8371B-E4F1-4C8E-9324-61BA5B899FF4}"/>
-    <hyperlink ref="I248" r:id="rId106" xr:uid="{BD8299AE-C56A-4EBC-B986-41AA420BE2BA}"/>
-    <hyperlink ref="I253" r:id="rId107" xr:uid="{61CF889D-CB04-4D29-A3C1-A6434AF5CED7}"/>
-    <hyperlink ref="I258" r:id="rId108" xr:uid="{FA28AD3C-86AA-4443-AB8D-8B93417FCB23}"/>
-    <hyperlink ref="I263" r:id="rId109" xr:uid="{D901619E-CFDD-43A2-98D3-A591DA0101A1}"/>
-    <hyperlink ref="I268" r:id="rId110" xr:uid="{0A2B0FB5-2843-477D-8BF6-9F56B4CE98FF}"/>
-    <hyperlink ref="I273" r:id="rId111" xr:uid="{3439021F-2D9D-46F2-A440-29567CB978B6}"/>
-    <hyperlink ref="I278" r:id="rId112" xr:uid="{60781F7F-D4C9-4906-B501-D2ADD1B859E8}"/>
-    <hyperlink ref="I2" r:id="rId113" xr:uid="{525E2720-8E42-4430-8056-7A7644995249}"/>
+    <hyperlink ref="K4" r:id="rId1" display="alexandros@gelbessis.gr" xr:uid="{DA957EC5-CC18-4640-A04D-6511F7A40713}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{B4D34315-CB23-406D-A054-0F5691B6DA86}"/>
+    <hyperlink ref="K9" r:id="rId3" display="alexandros@gelbessis.gr" xr:uid="{76AD73EC-38F0-43C3-B89A-3549A5961771}"/>
+    <hyperlink ref="K14" r:id="rId4" display="alexandros@gelbessis.gr" xr:uid="{627CC14E-8AD1-4260-8CA1-F9FD32C1CAC1}"/>
+    <hyperlink ref="K19" r:id="rId5" display="alexandros@gelbessis.gr" xr:uid="{466F2BCF-2939-4250-B03E-B8002ED6405C}"/>
+    <hyperlink ref="K24" r:id="rId6" display="alexandros@gelbessis.gr" xr:uid="{04E0E948-8F00-49BE-80A9-74FCCC71C308}"/>
+    <hyperlink ref="K29" r:id="rId7" display="alexandros@gelbessis.gr" xr:uid="{0781A250-8D19-4714-AEB1-9AB3D1601CA1}"/>
+    <hyperlink ref="K34" r:id="rId8" display="alexandros@gelbessis.gr" xr:uid="{B29D4AC2-CD38-4373-8878-18E2CB0907BF}"/>
+    <hyperlink ref="K39" r:id="rId9" display="alexandros@gelbessis.gr" xr:uid="{7DBCC6D1-E83B-4263-9BAC-C37C8E3AF86A}"/>
+    <hyperlink ref="K44" r:id="rId10" display="alexandros@gelbessis.gr" xr:uid="{7747B1D3-2496-401A-B426-45952E1BCE01}"/>
+    <hyperlink ref="K49" r:id="rId11" display="alexandros@gelbessis.gr" xr:uid="{43DDBF70-AFBB-459D-85F9-A130B6F94CA8}"/>
+    <hyperlink ref="K54" r:id="rId12" display="alexandros@gelbessis.gr" xr:uid="{A53541EB-193C-4A75-96C3-BDCFB0C15718}"/>
+    <hyperlink ref="K59" r:id="rId13" display="alexandros@gelbessis.gr" xr:uid="{6B24F51E-61CA-49FB-820E-EA5D32246BFA}"/>
+    <hyperlink ref="K64" r:id="rId14" display="alexandros@gelbessis.gr" xr:uid="{D4C8F7D9-FFF0-4F9F-A471-1EFFA4C349BD}"/>
+    <hyperlink ref="K69" r:id="rId15" display="alexandros@gelbessis.gr" xr:uid="{D86BF91C-DA68-40D6-A940-10A3354615C2}"/>
+    <hyperlink ref="K74" r:id="rId16" display="alexandros@gelbessis.gr" xr:uid="{9702209D-3C9C-4444-A75E-A44DAA8D66CE}"/>
+    <hyperlink ref="K79" r:id="rId17" display="alexandros@gelbessis.gr" xr:uid="{1A820731-20F3-4948-8C9D-CD8D691A73D7}"/>
+    <hyperlink ref="K84" r:id="rId18" display="alexandros@gelbessis.gr" xr:uid="{D7324E06-B5BB-49F4-83E0-B3E0B1546013}"/>
+    <hyperlink ref="K89" r:id="rId19" display="alexandros@gelbessis.gr" xr:uid="{8FE8499C-4DDA-4D0A-9BDC-3774E7BA63D5}"/>
+    <hyperlink ref="K94" r:id="rId20" display="alexandros@gelbessis.gr" xr:uid="{5DF2A1AF-2343-4259-9362-208F9409185D}"/>
+    <hyperlink ref="K99" r:id="rId21" display="alexandros@gelbessis.gr" xr:uid="{39DEC57E-6FAC-4345-93FC-238FF236B676}"/>
+    <hyperlink ref="K104" r:id="rId22" display="alexandros@gelbessis.gr" xr:uid="{23BADF1A-F4F7-414D-9C81-B163824363C5}"/>
+    <hyperlink ref="K109" r:id="rId23" display="alexandros@gelbessis.gr" xr:uid="{CBE676D6-50AC-4A92-921A-32BE402B33CC}"/>
+    <hyperlink ref="K114" r:id="rId24" display="alexandros@gelbessis.gr" xr:uid="{6989D838-4035-443B-B897-10F71283AB4E}"/>
+    <hyperlink ref="K119" r:id="rId25" display="alexandros@gelbessis.gr" xr:uid="{50B23BF6-A95E-4128-9709-90909DF5B183}"/>
+    <hyperlink ref="K124" r:id="rId26" display="alexandros@gelbessis.gr" xr:uid="{A9B0F288-3492-4E76-A459-1C3553858DC6}"/>
+    <hyperlink ref="K129" r:id="rId27" display="alexandros@gelbessis.gr" xr:uid="{4C7F20E9-3E22-4A53-A644-413657359C61}"/>
+    <hyperlink ref="K134" r:id="rId28" display="alexandros@gelbessis.gr" xr:uid="{882E512A-725C-451D-994B-800A63587299}"/>
+    <hyperlink ref="K139" r:id="rId29" display="alexandros@gelbessis.gr" xr:uid="{BE0000A5-6E4C-4B44-8121-7B653CF08847}"/>
+    <hyperlink ref="K144" r:id="rId30" display="alexandros@gelbessis.gr" xr:uid="{F064C1C2-A25D-4A23-B7C3-6AACBDB85F33}"/>
+    <hyperlink ref="K149" r:id="rId31" display="alexandros@gelbessis.gr" xr:uid="{BE873AB1-129C-4353-AE59-5955385CC9D1}"/>
+    <hyperlink ref="K154" r:id="rId32" display="alexandros@gelbessis.gr" xr:uid="{D99A7996-D62C-42B4-A393-7D39588D7A6D}"/>
+    <hyperlink ref="K159" r:id="rId33" display="alexandros@gelbessis.gr" xr:uid="{70C16914-175A-4D94-9AF0-4233DC79269D}"/>
+    <hyperlink ref="K164" r:id="rId34" display="alexandros@gelbessis.gr" xr:uid="{E6C5319A-82F7-47EF-9258-E3E86932F716}"/>
+    <hyperlink ref="K169" r:id="rId35" display="alexandros@gelbessis.gr" xr:uid="{449CD816-8BEB-4AC5-B08C-DF0E1CAFA6A0}"/>
+    <hyperlink ref="K174" r:id="rId36" display="alexandros@gelbessis.gr" xr:uid="{63D4ABAA-F74B-498A-8456-481DB52BD042}"/>
+    <hyperlink ref="K179" r:id="rId37" display="alexandros@gelbessis.gr" xr:uid="{2F3089E6-FC09-4AD5-A87B-501AEA09D056}"/>
+    <hyperlink ref="K184" r:id="rId38" display="alexandros@gelbessis.gr" xr:uid="{E46CB943-D61B-4CF4-B7BA-B9909B93DF06}"/>
+    <hyperlink ref="K189" r:id="rId39" display="alexandros@gelbessis.gr" xr:uid="{5D2C0015-B3BA-49D7-9E43-690FDE00BA88}"/>
+    <hyperlink ref="K194" r:id="rId40" display="alexandros@gelbessis.gr" xr:uid="{A6FA6FD9-8AC2-43AD-B31F-5F2DAA7D07AB}"/>
+    <hyperlink ref="K199" r:id="rId41" display="alexandros@gelbessis.gr" xr:uid="{4AFE46BF-ED70-4552-A8FB-F53EA2322715}"/>
+    <hyperlink ref="K204" r:id="rId42" display="alexandros@gelbessis.gr" xr:uid="{69563D32-4AF7-45DA-A1D6-6C04BED7C881}"/>
+    <hyperlink ref="K209" r:id="rId43" display="alexandros@gelbessis.gr" xr:uid="{2C126BB5-DCE9-4808-B2C5-6DFA1A894EE2}"/>
+    <hyperlink ref="K214" r:id="rId44" display="alexandros@gelbessis.gr" xr:uid="{456E11B7-B454-496A-908A-A755B3454243}"/>
+    <hyperlink ref="K219" r:id="rId45" display="alexandros@gelbessis.gr" xr:uid="{DA66069E-D7DA-4F50-B147-E3FEC9922E96}"/>
+    <hyperlink ref="K224" r:id="rId46" display="alexandros@gelbessis.gr" xr:uid="{103C41FC-FB39-4699-A227-775E4933F61A}"/>
+    <hyperlink ref="K229" r:id="rId47" display="alexandros@gelbessis.gr" xr:uid="{47A3294A-F12C-49AB-8011-1F0FD50F97FD}"/>
+    <hyperlink ref="K234" r:id="rId48" display="alexandros@gelbessis.gr" xr:uid="{E361E6A5-5086-4326-9044-17B4D3BB61BA}"/>
+    <hyperlink ref="K239" r:id="rId49" display="alexandros@gelbessis.gr" xr:uid="{497C2EB8-A9D3-4A5C-B97C-0461704ECC9F}"/>
+    <hyperlink ref="K244" r:id="rId50" display="alexandros@gelbessis.gr" xr:uid="{8FAE26DE-0CB7-4395-A81F-BD1A11A0EFEA}"/>
+    <hyperlink ref="K249" r:id="rId51" display="alexandros@gelbessis.gr" xr:uid="{FA33161A-7574-417B-B7D9-5A255F865D65}"/>
+    <hyperlink ref="K254" r:id="rId52" display="alexandros@gelbessis.gr" xr:uid="{3D5F3ACD-85CD-4DCF-AA88-3BB367612E73}"/>
+    <hyperlink ref="K259" r:id="rId53" display="alexandros@gelbessis.gr" xr:uid="{5604DF26-2FDF-430B-8061-626CD7C8E03A}"/>
+    <hyperlink ref="K264" r:id="rId54" display="alexandros@gelbessis.gr" xr:uid="{03193D31-9424-436A-B668-CC0C8DF461A6}"/>
+    <hyperlink ref="K269" r:id="rId55" display="alexandros@gelbessis.gr" xr:uid="{C2405333-6040-401E-AE96-863661AC5020}"/>
+    <hyperlink ref="K274" r:id="rId56" display="alexandros@gelbessis.gr" xr:uid="{EB27735C-C0CE-47A4-ACA6-FB60628CB27A}"/>
+    <hyperlink ref="K279" r:id="rId57" display="alexandros@gelbessis.gr" xr:uid="{9A9B39BA-ABC2-44F0-9E69-9D786BD6AD5F}"/>
+    <hyperlink ref="K8" r:id="rId58" xr:uid="{ECDEF6FA-7558-417C-9371-881F52719F8B}"/>
+    <hyperlink ref="K13" r:id="rId59" xr:uid="{5C035017-7B12-49EF-98D7-584BFDD28800}"/>
+    <hyperlink ref="K18" r:id="rId60" xr:uid="{FE033210-35E5-4EF7-B340-5654D79AD2A8}"/>
+    <hyperlink ref="K23" r:id="rId61" xr:uid="{4CBEBDEF-E2A2-4310-BD61-B3499795CCF7}"/>
+    <hyperlink ref="K28" r:id="rId62" xr:uid="{4244CD6C-6A48-4670-A427-8B2A714790EC}"/>
+    <hyperlink ref="K33" r:id="rId63" xr:uid="{BC4EB7A9-CC14-4116-9119-88319D35E44B}"/>
+    <hyperlink ref="K38" r:id="rId64" xr:uid="{8D5FF52D-8C88-4330-AAED-30F54845D417}"/>
+    <hyperlink ref="K43" r:id="rId65" xr:uid="{4E438D5E-A3BC-4F01-98D8-B56EEFCAEC48}"/>
+    <hyperlink ref="K48" r:id="rId66" xr:uid="{0DBF4D69-B35D-4A03-BEAA-CEACBECE4BC2}"/>
+    <hyperlink ref="K53" r:id="rId67" xr:uid="{E34F4F8D-A66D-4E33-BD9B-E11E54B07C53}"/>
+    <hyperlink ref="K58" r:id="rId68" xr:uid="{A402F8F7-E714-4851-AEF8-55D8E8720EA3}"/>
+    <hyperlink ref="K63" r:id="rId69" xr:uid="{77B37C23-EFB8-4861-A146-3EA21476B9B2}"/>
+    <hyperlink ref="K68" r:id="rId70" xr:uid="{54CDDE13-5362-4256-B774-4F4E1C4A8A37}"/>
+    <hyperlink ref="K73" r:id="rId71" xr:uid="{A8662097-8253-47B9-9AA8-6D89F8EA9C8B}"/>
+    <hyperlink ref="K78" r:id="rId72" xr:uid="{B409DA5F-95BF-4263-81D5-702763B79100}"/>
+    <hyperlink ref="K83" r:id="rId73" xr:uid="{1733E51C-5B8D-4B5C-B8B9-085F02B5EE01}"/>
+    <hyperlink ref="K88" r:id="rId74" xr:uid="{CA994BEB-A0D3-4BC6-A5BB-DCA1C593EDA3}"/>
+    <hyperlink ref="K93" r:id="rId75" xr:uid="{04780638-2823-4925-B7D4-8AB6096D2C78}"/>
+    <hyperlink ref="K98" r:id="rId76" xr:uid="{5F4E0289-9A30-4B62-8A07-D0131821DFC9}"/>
+    <hyperlink ref="K103" r:id="rId77" xr:uid="{56000748-4D00-47CE-A109-B5177297FB5B}"/>
+    <hyperlink ref="K108" r:id="rId78" xr:uid="{44BC776C-9149-4E8E-BF59-7CEEAC8F07BE}"/>
+    <hyperlink ref="K113" r:id="rId79" xr:uid="{32122447-38CD-40D2-B811-52E12148B44D}"/>
+    <hyperlink ref="K118" r:id="rId80" xr:uid="{0FF38D8B-8D97-4795-B602-2FF90B7B6158}"/>
+    <hyperlink ref="K123" r:id="rId81" xr:uid="{6AD787AC-3522-417A-B457-F3AD9A2D7824}"/>
+    <hyperlink ref="K128" r:id="rId82" xr:uid="{59C5DBD2-30B8-457E-B8E1-438F5E22D44E}"/>
+    <hyperlink ref="K133" r:id="rId83" xr:uid="{208A4C34-FD44-4F79-AB8C-0B89344908EC}"/>
+    <hyperlink ref="K138" r:id="rId84" xr:uid="{2D0571A8-E9F0-4DD2-95EA-9E8390C83179}"/>
+    <hyperlink ref="K143" r:id="rId85" xr:uid="{0FE5993E-8FE8-4183-8FAB-0845881B183F}"/>
+    <hyperlink ref="K148" r:id="rId86" xr:uid="{D28F81A7-C534-479B-8EC9-63C51D0CEFDD}"/>
+    <hyperlink ref="K153" r:id="rId87" xr:uid="{AC92BFB3-C7A5-4B41-834D-3D01BC1779BD}"/>
+    <hyperlink ref="K158" r:id="rId88" xr:uid="{F75DD536-1F29-472B-B259-0A4A2007C2B9}"/>
+    <hyperlink ref="K163" r:id="rId89" xr:uid="{4BFF11D6-8740-4B1A-A8D7-41578350F51B}"/>
+    <hyperlink ref="K168" r:id="rId90" xr:uid="{B81BB84B-489D-466C-A113-1DA42F9B278C}"/>
+    <hyperlink ref="K173" r:id="rId91" xr:uid="{DB6548EF-1298-4878-A050-B50288007F82}"/>
+    <hyperlink ref="K178" r:id="rId92" xr:uid="{9474971F-DA89-4C13-AFFA-C0188540CE94}"/>
+    <hyperlink ref="K183" r:id="rId93" xr:uid="{15CAA755-348B-448C-8D3D-7100AF0A7082}"/>
+    <hyperlink ref="K188" r:id="rId94" xr:uid="{4856057C-16AD-4777-9652-0D8D77EFA92B}"/>
+    <hyperlink ref="K193" r:id="rId95" xr:uid="{61861491-79B8-4ED4-A6B0-123BBBAEB0E4}"/>
+    <hyperlink ref="K198" r:id="rId96" xr:uid="{DBEAC655-FCF3-4187-87AA-93D47350A3BE}"/>
+    <hyperlink ref="K203" r:id="rId97" xr:uid="{8F473D45-A192-4597-85D7-B00DF6A7EAE3}"/>
+    <hyperlink ref="K208" r:id="rId98" xr:uid="{48B9D605-785C-4CDB-AC1B-19F58DE4F822}"/>
+    <hyperlink ref="K213" r:id="rId99" xr:uid="{2F281AF7-6019-42AE-9FB5-538A66213DCD}"/>
+    <hyperlink ref="K218" r:id="rId100" xr:uid="{4A477F05-F9F1-4C96-88BD-9EABEA0EC5B5}"/>
+    <hyperlink ref="K223" r:id="rId101" xr:uid="{C3F1E97E-6D07-4C1E-908D-816F7F916887}"/>
+    <hyperlink ref="K228" r:id="rId102" xr:uid="{721A7C1A-A692-4719-96A3-0F398B278AF9}"/>
+    <hyperlink ref="K233" r:id="rId103" xr:uid="{C60ED6DD-DFB6-4C06-AFE9-1A39DA56AC0E}"/>
+    <hyperlink ref="K238" r:id="rId104" xr:uid="{D14078BE-0649-4003-9C71-08C4B63972CD}"/>
+    <hyperlink ref="K243" r:id="rId105" xr:uid="{3CA8371B-E4F1-4C8E-9324-61BA5B899FF4}"/>
+    <hyperlink ref="K248" r:id="rId106" xr:uid="{BD8299AE-C56A-4EBC-B986-41AA420BE2BA}"/>
+    <hyperlink ref="K253" r:id="rId107" xr:uid="{61CF889D-CB04-4D29-A3C1-A6434AF5CED7}"/>
+    <hyperlink ref="K258" r:id="rId108" xr:uid="{FA28AD3C-86AA-4443-AB8D-8B93417FCB23}"/>
+    <hyperlink ref="K263" r:id="rId109" xr:uid="{D901619E-CFDD-43A2-98D3-A591DA0101A1}"/>
+    <hyperlink ref="K268" r:id="rId110" xr:uid="{0A2B0FB5-2843-477D-8BF6-9F56B4CE98FF}"/>
+    <hyperlink ref="K273" r:id="rId111" xr:uid="{3439021F-2D9D-46F2-A440-29567CB978B6}"/>
+    <hyperlink ref="K278" r:id="rId112" xr:uid="{60781F7F-D4C9-4906-B501-D2ADD1B859E8}"/>
+    <hyperlink ref="K2" r:id="rId113" xr:uid="{525E2720-8E42-4430-8056-7A7644995249}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId114"/>
